--- a/The research project/News_release_chart_data_mar_2023.xlsx
+++ b/The research project/News_release_chart_data_mar_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tie/Documents/GitHub/ECON-493-forcasting-economy/The research project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F59AB63-F435-934B-B4FB-923C736D3749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E44B03F-2576-8845-9843-24F6EFCD3DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37820" yWindow="500" windowWidth="30980" windowHeight="20080" tabRatio="877" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,6 @@
     <sheet name="Chart B" sheetId="24" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Chart A'!$A$2:$A$195</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Chart A'!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Chart A'!$B$2:$B$195</definedName>
     <definedName name="Chart1CA">OFFSET(Chart1DataLabels,0,2)</definedName>
     <definedName name="Chart1DataLabels">OFFSET(#REF!,,,COUNTA(#REF!),1)</definedName>
     <definedName name="Chart1MM">OFFSET(Chart1DataLabels,0,1)</definedName>
@@ -45,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -134,14 +131,22 @@
     <t>Seasonally adjusted</t>
   </si>
   <si>
-    <t>Aggregate Composite MLS® HPI
-Year-over-year percentage change</t>
-  </si>
-  <si>
     <t>10-year average</t>
   </si>
   <si>
     <t>Months of inventory (L)</t>
+  </si>
+  <si>
+    <t>Canada</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -220,7 +225,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -251,9 +256,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -10292,7 +10294,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>23</v>
@@ -13595,4362 +13597,4362 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <v>38353</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="21">
         <v>219800</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="21">
         <v>192200</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="21">
         <v>272200</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="21">
         <v>204300</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="21">
         <v>171500</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>38384</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <v>221300</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <v>193000</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <v>274000</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <v>205000</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <v>173300</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>38412</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>222900</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>194300</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>276200</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <v>205500</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>174400</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>38443</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <v>224600</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>195700</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>278300</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>206000</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>175300</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>38473</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>226100</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>196800</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>280400</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>206300</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>176200</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>38504</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="21">
         <v>228400</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>198400</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>283500</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <v>207200</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <v>178100</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>38534</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="21">
         <v>231200</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>200700</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>287100</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="21">
         <v>209400</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>179700</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>38565</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>234100</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>203100</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>290700</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <v>211300</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <v>181000</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>38596</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="21">
         <v>237200</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <v>206100</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>294300</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <v>214000</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <v>185200</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>38626</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="21">
         <v>240500</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="21">
         <v>208600</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>298700</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="21">
         <v>215900</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="21">
         <v>186800</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <v>38657</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="21">
         <v>244100</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>211900</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>302700</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="21">
         <v>218700</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="21">
         <v>189100</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>38687</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="21">
         <v>247100</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <v>214500</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>306700</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="21">
         <v>219900</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="21">
         <v>191000</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <v>38718</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="21">
         <v>250900</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <v>217600</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>310900</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="21">
         <v>224100</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="21">
         <v>194100</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <v>38749</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>254300</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>220900</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>314800</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="21">
         <v>227000</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="21">
         <v>196500</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="21">
+      <c r="A16" s="20">
         <v>38777</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <v>257800</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <v>224000</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>319300</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="21">
         <v>229300</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="21">
         <v>198700</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="21">
+      <c r="A17" s="20">
         <v>38808</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>261700</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="21">
         <v>227500</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <v>323800</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="21">
         <v>232500</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="21">
         <v>201500</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
         <v>38838</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>265500</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <v>231200</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>328200</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="21">
         <v>236000</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="21">
         <v>204400</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="21">
+      <c r="A19" s="20">
         <v>38869</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="21">
         <v>269300</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="21">
         <v>234700</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <v>332300</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="21">
         <v>240000</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="21">
         <v>206900</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="21">
+      <c r="A20" s="20">
         <v>38899</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="21">
         <v>272800</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="21">
         <v>238100</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>336200</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="21">
         <v>243100</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="21">
         <v>210000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="21">
+      <c r="A21" s="20">
         <v>38930</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>276400</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="21">
         <v>241600</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <v>340000</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="21">
         <v>246500</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="21">
         <v>213000</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="21">
+      <c r="A22" s="20">
         <v>38961</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>279700</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="21">
         <v>244400</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <v>344400</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="21">
         <v>249000</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="21">
         <v>216300</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="21">
+      <c r="A23" s="20">
         <v>38991</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="21">
         <v>282300</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <v>247400</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>346400</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="21">
         <v>252200</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="21">
         <v>217400</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="21">
+      <c r="A24" s="20">
         <v>39022</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="21">
         <v>284800</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="21">
         <v>250200</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="21">
         <v>349300</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="21">
         <v>254300</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="21">
         <v>218800</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="21">
+      <c r="A25" s="20">
         <v>39052</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="21">
         <v>288000</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="21">
         <v>253900</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>352200</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="21">
         <v>257100</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="21">
         <v>220900</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="21">
+      <c r="A26" s="20">
         <v>39083</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="21">
         <v>291200</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="21">
         <v>257000</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>355800</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="21">
         <v>259300</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="21">
         <v>223200</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="21">
+      <c r="A27" s="20">
         <v>39114</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="21">
         <v>295000</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="21">
         <v>260800</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>360700</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="21">
         <v>261600</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="21">
         <v>225400</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="21">
+      <c r="A28" s="20">
         <v>39142</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="21">
         <v>298700</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="21">
         <v>264300</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="21">
         <v>364700</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="21">
         <v>265000</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="21">
         <v>228000</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="21">
+      <c r="A29" s="20">
         <v>39173</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="21">
         <v>302000</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="21">
         <v>267100</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="21">
         <v>369000</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="21">
         <v>267000</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="21">
         <v>230400</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="21">
+      <c r="A30" s="20">
         <v>39203</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="21">
         <v>306100</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="21">
         <v>271500</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <v>373600</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="21">
         <v>269600</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="21">
         <v>233000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="21">
+      <c r="A31" s="20">
         <v>39234</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="21">
         <v>309600</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="21">
         <v>275200</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="21">
         <v>377500</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="21">
         <v>271900</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="21">
         <v>235300</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="21">
+      <c r="A32" s="20">
         <v>39264</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="21">
         <v>312800</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="21">
         <v>278400</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="21">
         <v>381200</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="21">
         <v>273900</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="21">
         <v>237500</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="21">
+      <c r="A33" s="20">
         <v>39295</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="21">
         <v>315400</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="21">
         <v>280700</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="21">
         <v>384500</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="21">
         <v>276100</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="21">
         <v>239300</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="21">
+      <c r="A34" s="20">
         <v>39326</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="21">
         <v>317900</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="21">
         <v>283500</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="21">
         <v>387600</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="21">
         <v>277200</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="21">
         <v>241100</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="21">
+      <c r="A35" s="20">
         <v>39356</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="21">
         <v>320400</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="21">
         <v>285700</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="21">
         <v>390600</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="21">
         <v>278700</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="21">
         <v>243000</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="21">
+      <c r="A36" s="20">
         <v>39387</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="21">
         <v>322700</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="21">
         <v>287700</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="21">
         <v>393300</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="21">
         <v>280500</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F36" s="21">
         <v>245100</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="21">
+      <c r="A37" s="20">
         <v>39417</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="21">
         <v>325300</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="21">
         <v>289100</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="21">
         <v>396800</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="21">
         <v>282400</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="21">
         <v>247200</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="21">
+      <c r="A38" s="20">
         <v>39448</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="21">
         <v>327000</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="21">
         <v>290700</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="21">
         <v>398900</v>
       </c>
-      <c r="E38" s="22">
+      <c r="E38" s="21">
         <v>284200</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F38" s="21">
         <v>248500</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="21">
+      <c r="A39" s="20">
         <v>39479</v>
       </c>
-      <c r="B39" s="22">
+      <c r="B39" s="21">
         <v>327700</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C39" s="21">
         <v>291400</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="21">
         <v>399600</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E39" s="21">
         <v>284900</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="21">
         <v>249000</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="21">
+      <c r="A40" s="20">
         <v>39508</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="21">
         <v>327700</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40" s="21">
         <v>291400</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="21">
         <v>399200</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="21">
         <v>285600</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="21">
         <v>249600</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="21">
+      <c r="A41" s="20">
         <v>39539</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41" s="21">
         <v>326600</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C41" s="21">
         <v>290500</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="21">
         <v>397700</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="21">
         <v>285800</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="21">
         <v>248800</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="21">
+      <c r="A42" s="20">
         <v>39569</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="21">
         <v>324700</v>
       </c>
-      <c r="C42" s="22">
+      <c r="C42" s="21">
         <v>288700</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="21">
         <v>395200</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E42" s="21">
         <v>285100</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="21">
         <v>247700</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="21">
+      <c r="A43" s="20">
         <v>39600</v>
       </c>
-      <c r="B43" s="22">
+      <c r="B43" s="21">
         <v>322900</v>
       </c>
-      <c r="C43" s="22">
+      <c r="C43" s="21">
         <v>286900</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="21">
         <v>393000</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="21">
         <v>283800</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="21">
         <v>246300</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="21">
+      <c r="A44" s="20">
         <v>39630</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="21">
         <v>320600</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C44" s="21">
         <v>284600</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="21">
         <v>390100</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="21">
         <v>282300</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F44" s="21">
         <v>244800</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="21">
+      <c r="A45" s="20">
         <v>39661</v>
       </c>
-      <c r="B45" s="22">
+      <c r="B45" s="21">
         <v>318600</v>
       </c>
-      <c r="C45" s="22">
+      <c r="C45" s="21">
         <v>283100</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="21">
         <v>387400</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="21">
         <v>280500</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F45" s="21">
         <v>243200</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="21">
+      <c r="A46" s="20">
         <v>39692</v>
       </c>
-      <c r="B46" s="22">
+      <c r="B46" s="21">
         <v>316600</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46" s="21">
         <v>281300</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="21">
         <v>385300</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E46" s="21">
         <v>279000</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F46" s="21">
         <v>241400</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="21">
+      <c r="A47" s="20">
         <v>39722</v>
       </c>
-      <c r="B47" s="22">
+      <c r="B47" s="21">
         <v>312800</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="21">
         <v>277800</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="21">
         <v>380200</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="21">
         <v>276400</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="21">
         <v>238600</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="21">
+      <c r="A48" s="20">
         <v>39753</v>
       </c>
-      <c r="B48" s="22">
+      <c r="B48" s="21">
         <v>309500</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C48" s="21">
         <v>274200</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="21">
         <v>376800</v>
       </c>
-      <c r="E48" s="22">
+      <c r="E48" s="21">
         <v>273700</v>
       </c>
-      <c r="F48" s="22">
+      <c r="F48" s="21">
         <v>235700</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="21">
+      <c r="A49" s="20">
         <v>39783</v>
       </c>
-      <c r="B49" s="22">
+      <c r="B49" s="21">
         <v>305600</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49" s="21">
         <v>270900</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="21">
         <v>371900</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E49" s="21">
         <v>268000</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F49" s="21">
         <v>233500</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="21">
+      <c r="A50" s="20">
         <v>39814</v>
       </c>
-      <c r="B50" s="22">
+      <c r="B50" s="21">
         <v>302300</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C50" s="21">
         <v>268100</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="21">
         <v>368400</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E50" s="21">
         <v>266800</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F50" s="21">
         <v>229000</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="21">
+      <c r="A51" s="20">
         <v>39845</v>
       </c>
-      <c r="B51" s="22">
+      <c r="B51" s="21">
         <v>299700</v>
       </c>
-      <c r="C51" s="22">
+      <c r="C51" s="21">
         <v>265500</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="21">
         <v>364800</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E51" s="21">
         <v>264700</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F51" s="21">
         <v>227800</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="21">
+      <c r="A52" s="20">
         <v>39873</v>
       </c>
-      <c r="B52" s="22">
+      <c r="B52" s="21">
         <v>297700</v>
       </c>
-      <c r="C52" s="22">
+      <c r="C52" s="21">
         <v>262600</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="21">
         <v>363100</v>
       </c>
-      <c r="E52" s="22">
+      <c r="E52" s="21">
         <v>262400</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F52" s="21">
         <v>226700</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="21">
+      <c r="A53" s="20">
         <v>39904</v>
       </c>
-      <c r="B53" s="22">
+      <c r="B53" s="21">
         <v>299000</v>
       </c>
-      <c r="C53" s="22">
+      <c r="C53" s="21">
         <v>263900</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="21">
         <v>364600</v>
       </c>
-      <c r="E53" s="22">
+      <c r="E53" s="21">
         <v>261800</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="21">
         <v>228200</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="21">
+      <c r="A54" s="20">
         <v>39934</v>
       </c>
-      <c r="B54" s="22">
+      <c r="B54" s="21">
         <v>301300</v>
       </c>
-      <c r="C54" s="22">
+      <c r="C54" s="21">
         <v>265400</v>
       </c>
-      <c r="D54" s="22">
+      <c r="D54" s="21">
         <v>368300</v>
       </c>
-      <c r="E54" s="22">
+      <c r="E54" s="21">
         <v>262600</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F54" s="21">
         <v>230000</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="21">
+      <c r="A55" s="20">
         <v>39965</v>
       </c>
-      <c r="B55" s="22">
+      <c r="B55" s="21">
         <v>305000</v>
       </c>
-      <c r="C55" s="22">
+      <c r="C55" s="21">
         <v>267800</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="21">
         <v>373400</v>
       </c>
-      <c r="E55" s="22">
+      <c r="E55" s="21">
         <v>264200</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F55" s="21">
         <v>233200</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="21">
+      <c r="A56" s="20">
         <v>39995</v>
       </c>
-      <c r="B56" s="22">
+      <c r="B56" s="21">
         <v>309400</v>
       </c>
-      <c r="C56" s="22">
+      <c r="C56" s="21">
         <v>271200</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D56" s="21">
         <v>379200</v>
       </c>
-      <c r="E56" s="22">
+      <c r="E56" s="21">
         <v>267800</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F56" s="21">
         <v>236500</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="21">
+      <c r="A57" s="20">
         <v>40026</v>
       </c>
-      <c r="B57" s="22">
+      <c r="B57" s="21">
         <v>313800</v>
       </c>
-      <c r="C57" s="22">
+      <c r="C57" s="21">
         <v>274300</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="21">
         <v>385100</v>
       </c>
-      <c r="E57" s="22">
+      <c r="E57" s="21">
         <v>270800</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F57" s="21">
         <v>239800</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="21">
+      <c r="A58" s="20">
         <v>40057</v>
       </c>
-      <c r="B58" s="22">
+      <c r="B58" s="21">
         <v>318500</v>
       </c>
-      <c r="C58" s="22">
+      <c r="C58" s="21">
         <v>277400</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="21">
         <v>391800</v>
       </c>
-      <c r="E58" s="22">
+      <c r="E58" s="21">
         <v>274700</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F58" s="21">
         <v>243500</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="21">
+      <c r="A59" s="20">
         <v>40087</v>
       </c>
-      <c r="B59" s="22">
+      <c r="B59" s="21">
         <v>323200</v>
       </c>
-      <c r="C59" s="22">
+      <c r="C59" s="21">
         <v>281100</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="21">
         <v>398100</v>
       </c>
-      <c r="E59" s="22">
+      <c r="E59" s="21">
         <v>278200</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F59" s="21">
         <v>247000</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="21">
+      <c r="A60" s="20">
         <v>40118</v>
       </c>
-      <c r="B60" s="22">
+      <c r="B60" s="21">
         <v>327600</v>
       </c>
-      <c r="C60" s="22">
+      <c r="C60" s="21">
         <v>284300</v>
       </c>
-      <c r="D60" s="22">
+      <c r="D60" s="21">
         <v>403700</v>
       </c>
-      <c r="E60" s="22">
+      <c r="E60" s="21">
         <v>281700</v>
       </c>
-      <c r="F60" s="22">
+      <c r="F60" s="21">
         <v>250800</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="21">
+      <c r="A61" s="20">
         <v>40148</v>
       </c>
-      <c r="B61" s="22">
+      <c r="B61" s="21">
         <v>331200</v>
       </c>
-      <c r="C61" s="22">
+      <c r="C61" s="21">
         <v>287500</v>
       </c>
-      <c r="D61" s="22">
+      <c r="D61" s="21">
         <v>408200</v>
       </c>
-      <c r="E61" s="22">
+      <c r="E61" s="21">
         <v>285000</v>
       </c>
-      <c r="F61" s="22">
+      <c r="F61" s="21">
         <v>253500</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="21">
+      <c r="A62" s="20">
         <v>40179</v>
       </c>
-      <c r="B62" s="22">
+      <c r="B62" s="21">
         <v>334000</v>
       </c>
-      <c r="C62" s="22">
+      <c r="C62" s="21">
         <v>288800</v>
       </c>
-      <c r="D62" s="22">
+      <c r="D62" s="21">
         <v>411700</v>
       </c>
-      <c r="E62" s="22">
+      <c r="E62" s="21">
         <v>288900</v>
       </c>
-      <c r="F62" s="22">
+      <c r="F62" s="21">
         <v>256600</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="21">
+      <c r="A63" s="20">
         <v>40210</v>
       </c>
-      <c r="B63" s="22">
+      <c r="B63" s="21">
         <v>336100</v>
       </c>
-      <c r="C63" s="22">
+      <c r="C63" s="21">
         <v>290500</v>
       </c>
-      <c r="D63" s="22">
+      <c r="D63" s="21">
         <v>415100</v>
       </c>
-      <c r="E63" s="22">
+      <c r="E63" s="21">
         <v>289700</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F63" s="21">
         <v>257500</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="21">
+      <c r="A64" s="20">
         <v>40238</v>
       </c>
-      <c r="B64" s="22">
+      <c r="B64" s="21">
         <v>337800</v>
       </c>
-      <c r="C64" s="22">
+      <c r="C64" s="21">
         <v>291100</v>
       </c>
-      <c r="D64" s="22">
+      <c r="D64" s="21">
         <v>417400</v>
       </c>
-      <c r="E64" s="22">
+      <c r="E64" s="21">
         <v>291700</v>
       </c>
-      <c r="F64" s="22">
+      <c r="F64" s="21">
         <v>258700</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="21">
+      <c r="A65" s="20">
         <v>40269</v>
       </c>
-      <c r="B65" s="22">
+      <c r="B65" s="21">
         <v>338300</v>
       </c>
-      <c r="C65" s="22">
+      <c r="C65" s="21">
         <v>291600</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="21">
         <v>418000</v>
       </c>
-      <c r="E65" s="22">
+      <c r="E65" s="21">
         <v>293300</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F65" s="21">
         <v>258700</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="21">
+      <c r="A66" s="20">
         <v>40299</v>
       </c>
-      <c r="B66" s="22">
+      <c r="B66" s="21">
         <v>338100</v>
       </c>
-      <c r="C66" s="22">
+      <c r="C66" s="21">
         <v>291200</v>
       </c>
-      <c r="D66" s="22">
+      <c r="D66" s="21">
         <v>417800</v>
       </c>
-      <c r="E66" s="22">
+      <c r="E66" s="21">
         <v>293500</v>
       </c>
-      <c r="F66" s="22">
+      <c r="F66" s="21">
         <v>258700</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="21">
+      <c r="A67" s="20">
         <v>40330</v>
       </c>
-      <c r="B67" s="22">
+      <c r="B67" s="21">
         <v>336900</v>
       </c>
-      <c r="C67" s="22">
+      <c r="C67" s="21">
         <v>290100</v>
       </c>
-      <c r="D67" s="22">
+      <c r="D67" s="21">
         <v>416400</v>
       </c>
-      <c r="E67" s="22">
+      <c r="E67" s="21">
         <v>293600</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F67" s="21">
         <v>257200</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="21">
+      <c r="A68" s="20">
         <v>40360</v>
       </c>
-      <c r="B68" s="22">
+      <c r="B68" s="21">
         <v>336000</v>
       </c>
-      <c r="C68" s="22">
+      <c r="C68" s="21">
         <v>289500</v>
       </c>
-      <c r="D68" s="22">
+      <c r="D68" s="21">
         <v>415600</v>
       </c>
-      <c r="E68" s="22">
+      <c r="E68" s="21">
         <v>291900</v>
       </c>
-      <c r="F68" s="22">
+      <c r="F68" s="21">
         <v>256100</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="21">
+      <c r="A69" s="20">
         <v>40391</v>
       </c>
-      <c r="B69" s="22">
+      <c r="B69" s="21">
         <v>335700</v>
       </c>
-      <c r="C69" s="22">
+      <c r="C69" s="21">
         <v>288600</v>
       </c>
-      <c r="D69" s="22">
+      <c r="D69" s="21">
         <v>416000</v>
       </c>
-      <c r="E69" s="22">
+      <c r="E69" s="21">
         <v>291000</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F69" s="21">
         <v>254800</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="21">
+      <c r="A70" s="20">
         <v>40422</v>
       </c>
-      <c r="B70" s="22">
+      <c r="B70" s="21">
         <v>335900</v>
       </c>
-      <c r="C70" s="22">
+      <c r="C70" s="21">
         <v>288400</v>
       </c>
-      <c r="D70" s="22">
+      <c r="D70" s="21">
         <v>416400</v>
       </c>
-      <c r="E70" s="22">
+      <c r="E70" s="21">
         <v>290800</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F70" s="21">
         <v>255700</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="21">
+      <c r="A71" s="20">
         <v>40452</v>
       </c>
-      <c r="B71" s="22">
+      <c r="B71" s="21">
         <v>337000</v>
       </c>
-      <c r="C71" s="22">
+      <c r="C71" s="21">
         <v>289000</v>
       </c>
-      <c r="D71" s="22">
+      <c r="D71" s="21">
         <v>417800</v>
       </c>
-      <c r="E71" s="22">
+      <c r="E71" s="21">
         <v>290900</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F71" s="21">
         <v>256900</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="21">
+      <c r="A72" s="20">
         <v>40483</v>
       </c>
-      <c r="B72" s="22">
+      <c r="B72" s="21">
         <v>338700</v>
       </c>
-      <c r="C72" s="22">
+      <c r="C72" s="21">
         <v>289900</v>
       </c>
-      <c r="D72" s="22">
+      <c r="D72" s="21">
         <v>420900</v>
       </c>
-      <c r="E72" s="22">
+      <c r="E72" s="21">
         <v>291600</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F72" s="21">
         <v>257500</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="21">
+      <c r="A73" s="20">
         <v>40513</v>
       </c>
-      <c r="B73" s="22">
+      <c r="B73" s="21">
         <v>340400</v>
       </c>
-      <c r="C73" s="22">
+      <c r="C73" s="21">
         <v>290300</v>
       </c>
-      <c r="D73" s="22">
+      <c r="D73" s="21">
         <v>423500</v>
       </c>
-      <c r="E73" s="22">
+      <c r="E73" s="21">
         <v>293200</v>
       </c>
-      <c r="F73" s="22">
+      <c r="F73" s="21">
         <v>258800</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="21">
+      <c r="A74" s="20">
         <v>40544</v>
       </c>
-      <c r="B74" s="22">
+      <c r="B74" s="21">
         <v>343000</v>
       </c>
-      <c r="C74" s="22">
+      <c r="C74" s="21">
         <v>291900</v>
       </c>
-      <c r="D74" s="22">
+      <c r="D74" s="21">
         <v>427500</v>
       </c>
-      <c r="E74" s="22">
+      <c r="E74" s="21">
         <v>294000</v>
       </c>
-      <c r="F74" s="22">
+      <c r="F74" s="21">
         <v>260700</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="21">
+      <c r="A75" s="20">
         <v>40575</v>
       </c>
-      <c r="B75" s="22">
+      <c r="B75" s="21">
         <v>345800</v>
       </c>
-      <c r="C75" s="22">
+      <c r="C75" s="21">
         <v>293800</v>
       </c>
-      <c r="D75" s="22">
+      <c r="D75" s="21">
         <v>431500</v>
       </c>
-      <c r="E75" s="22">
+      <c r="E75" s="21">
         <v>295500</v>
       </c>
-      <c r="F75" s="22">
+      <c r="F75" s="21">
         <v>262200</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="21">
+      <c r="A76" s="20">
         <v>40603</v>
       </c>
-      <c r="B76" s="22">
+      <c r="B76" s="21">
         <v>348400</v>
       </c>
-      <c r="C76" s="22">
+      <c r="C76" s="21">
         <v>295600</v>
       </c>
-      <c r="D76" s="22">
+      <c r="D76" s="21">
         <v>435600</v>
       </c>
-      <c r="E76" s="22">
+      <c r="E76" s="21">
         <v>296800</v>
       </c>
-      <c r="F76" s="22">
+      <c r="F76" s="21">
         <v>263300</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="21">
+      <c r="A77" s="20">
         <v>40634</v>
       </c>
-      <c r="B77" s="22">
+      <c r="B77" s="21">
         <v>350700</v>
       </c>
-      <c r="C77" s="22">
+      <c r="C77" s="21">
         <v>297000</v>
       </c>
-      <c r="D77" s="22">
+      <c r="D77" s="21">
         <v>439400</v>
       </c>
-      <c r="E77" s="22">
+      <c r="E77" s="21">
         <v>297600</v>
       </c>
-      <c r="F77" s="22">
+      <c r="F77" s="21">
         <v>264400</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="21">
+      <c r="A78" s="20">
         <v>40664</v>
       </c>
-      <c r="B78" s="22">
+      <c r="B78" s="21">
         <v>353400</v>
       </c>
-      <c r="C78" s="22">
+      <c r="C78" s="21">
         <v>298900</v>
       </c>
-      <c r="D78" s="22">
+      <c r="D78" s="21">
         <v>443800</v>
       </c>
-      <c r="E78" s="22">
+      <c r="E78" s="21">
         <v>298300</v>
       </c>
-      <c r="F78" s="22">
+      <c r="F78" s="21">
         <v>265100</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="21">
+      <c r="A79" s="20">
         <v>40695</v>
       </c>
-      <c r="B79" s="22">
+      <c r="B79" s="21">
         <v>356000</v>
       </c>
-      <c r="C79" s="22">
+      <c r="C79" s="21">
         <v>300600</v>
       </c>
-      <c r="D79" s="22">
+      <c r="D79" s="21">
         <v>448000</v>
       </c>
-      <c r="E79" s="22">
+      <c r="E79" s="21">
         <v>298700</v>
       </c>
-      <c r="F79" s="22">
+      <c r="F79" s="21">
         <v>266700</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="21">
+      <c r="A80" s="20">
         <v>40725</v>
       </c>
-      <c r="B80" s="22">
+      <c r="B80" s="21">
         <v>358600</v>
       </c>
-      <c r="C80" s="22">
+      <c r="C80" s="21">
         <v>302000</v>
       </c>
-      <c r="D80" s="22">
+      <c r="D80" s="21">
         <v>451900</v>
       </c>
-      <c r="E80" s="22">
+      <c r="E80" s="21">
         <v>301600</v>
       </c>
-      <c r="F80" s="22">
+      <c r="F80" s="21">
         <v>268200</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="21">
+      <c r="A81" s="20">
         <v>40756</v>
       </c>
-      <c r="B81" s="22">
+      <c r="B81" s="21">
         <v>360900</v>
       </c>
-      <c r="C81" s="22">
+      <c r="C81" s="21">
         <v>303500</v>
       </c>
-      <c r="D81" s="22">
+      <c r="D81" s="21">
         <v>455400</v>
       </c>
-      <c r="E81" s="22">
+      <c r="E81" s="21">
         <v>303700</v>
       </c>
-      <c r="F81" s="22">
+      <c r="F81" s="21">
         <v>269000</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="21">
+      <c r="A82" s="20">
         <v>40787</v>
       </c>
-      <c r="B82" s="22">
+      <c r="B82" s="21">
         <v>362800</v>
       </c>
-      <c r="C82" s="22">
+      <c r="C82" s="21">
         <v>305000</v>
       </c>
-      <c r="D82" s="22">
+      <c r="D82" s="21">
         <v>458300</v>
       </c>
-      <c r="E82" s="22">
+      <c r="E82" s="21">
         <v>304300</v>
       </c>
-      <c r="F82" s="22">
+      <c r="F82" s="21">
         <v>269500</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="21">
+      <c r="A83" s="20">
         <v>40817</v>
       </c>
-      <c r="B83" s="22">
+      <c r="B83" s="21">
         <v>364500</v>
       </c>
-      <c r="C83" s="22">
+      <c r="C83" s="21">
         <v>306400</v>
       </c>
-      <c r="D83" s="22">
+      <c r="D83" s="21">
         <v>461200</v>
       </c>
-      <c r="E83" s="22">
+      <c r="E83" s="21">
         <v>305200</v>
       </c>
-      <c r="F83" s="22">
+      <c r="F83" s="21">
         <v>269900</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="21">
+      <c r="A84" s="20">
         <v>40848</v>
       </c>
-      <c r="B84" s="22">
+      <c r="B84" s="21">
         <v>366400</v>
       </c>
-      <c r="C84" s="22">
+      <c r="C84" s="21">
         <v>308300</v>
       </c>
-      <c r="D84" s="22">
+      <c r="D84" s="21">
         <v>463500</v>
       </c>
-      <c r="E84" s="22">
+      <c r="E84" s="21">
         <v>306400</v>
       </c>
-      <c r="F84" s="22">
+      <c r="F84" s="21">
         <v>271200</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="21">
+      <c r="A85" s="20">
         <v>40878</v>
       </c>
-      <c r="B85" s="22">
+      <c r="B85" s="21">
         <v>368200</v>
       </c>
-      <c r="C85" s="22">
+      <c r="C85" s="21">
         <v>310400</v>
       </c>
-      <c r="D85" s="22">
+      <c r="D85" s="21">
         <v>466400</v>
       </c>
-      <c r="E85" s="22">
+      <c r="E85" s="21">
         <v>305900</v>
       </c>
-      <c r="F85" s="22">
+      <c r="F85" s="21">
         <v>271600</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="21">
+      <c r="A86" s="20">
         <v>40909</v>
       </c>
-      <c r="B86" s="22">
+      <c r="B86" s="21">
         <v>370100</v>
       </c>
-      <c r="C86" s="22">
+      <c r="C86" s="21">
         <v>312400</v>
       </c>
-      <c r="D86" s="22">
+      <c r="D86" s="21">
         <v>469300</v>
       </c>
-      <c r="E86" s="22">
+      <c r="E86" s="21">
         <v>306700</v>
       </c>
-      <c r="F86" s="22">
+      <c r="F86" s="21">
         <v>271800</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="21">
+      <c r="A87" s="20">
         <v>40940</v>
       </c>
-      <c r="B87" s="22">
+      <c r="B87" s="21">
         <v>371400</v>
       </c>
-      <c r="C87" s="22">
+      <c r="C87" s="21">
         <v>312400</v>
       </c>
-      <c r="D87" s="22">
+      <c r="D87" s="21">
         <v>471800</v>
       </c>
-      <c r="E87" s="22">
+      <c r="E87" s="21">
         <v>307700</v>
       </c>
-      <c r="F87" s="22">
+      <c r="F87" s="21">
         <v>272200</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="21">
+      <c r="A88" s="20">
         <v>40969</v>
       </c>
-      <c r="B88" s="22">
+      <c r="B88" s="21">
         <v>372800</v>
       </c>
-      <c r="C88" s="22">
+      <c r="C88" s="21">
         <v>314100</v>
       </c>
-      <c r="D88" s="22">
+      <c r="D88" s="21">
         <v>473700</v>
       </c>
-      <c r="E88" s="22">
+      <c r="E88" s="21">
         <v>307900</v>
       </c>
-      <c r="F88" s="22">
+      <c r="F88" s="21">
         <v>272100</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="21">
+      <c r="A89" s="20">
         <v>41000</v>
       </c>
-      <c r="B89" s="22">
+      <c r="B89" s="21">
         <v>374100</v>
       </c>
-      <c r="C89" s="22">
+      <c r="C89" s="21">
         <v>315600</v>
       </c>
-      <c r="D89" s="22">
+      <c r="D89" s="21">
         <v>475600</v>
       </c>
-      <c r="E89" s="22">
+      <c r="E89" s="21">
         <v>308300</v>
       </c>
-      <c r="F89" s="22">
+      <c r="F89" s="21">
         <v>272400</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="21">
+      <c r="A90" s="20">
         <v>41030</v>
       </c>
-      <c r="B90" s="22">
+      <c r="B90" s="21">
         <v>374200</v>
       </c>
-      <c r="C90" s="22">
+      <c r="C90" s="21">
         <v>316500</v>
       </c>
-      <c r="D90" s="22">
+      <c r="D90" s="21">
         <v>475100</v>
       </c>
-      <c r="E90" s="22">
+      <c r="E90" s="21">
         <v>308500</v>
       </c>
-      <c r="F90" s="22">
+      <c r="F90" s="21">
         <v>272300</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="21">
+      <c r="A91" s="20">
         <v>41061</v>
       </c>
-      <c r="B91" s="22">
+      <c r="B91" s="21">
         <v>373800</v>
       </c>
-      <c r="C91" s="22">
+      <c r="C91" s="21">
         <v>316200</v>
       </c>
-      <c r="D91" s="22">
+      <c r="D91" s="21">
         <v>474700</v>
       </c>
-      <c r="E91" s="22">
+      <c r="E91" s="21">
         <v>308200</v>
       </c>
-      <c r="F91" s="22">
+      <c r="F91" s="21">
         <v>271800</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="21">
+      <c r="A92" s="20">
         <v>41091</v>
       </c>
-      <c r="B92" s="22">
+      <c r="B92" s="21">
         <v>373500</v>
       </c>
-      <c r="C92" s="22">
+      <c r="C92" s="21">
         <v>316000</v>
       </c>
-      <c r="D92" s="22">
+      <c r="D92" s="21">
         <v>474700</v>
       </c>
-      <c r="E92" s="22">
+      <c r="E92" s="21">
         <v>307900</v>
       </c>
-      <c r="F92" s="22">
+      <c r="F92" s="21">
         <v>270900</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="21">
+      <c r="A93" s="20">
         <v>41122</v>
       </c>
-      <c r="B93" s="22">
+      <c r="B93" s="21">
         <v>373100</v>
       </c>
-      <c r="C93" s="22">
+      <c r="C93" s="21">
         <v>316400</v>
       </c>
-      <c r="D93" s="22">
+      <c r="D93" s="21">
         <v>473600</v>
       </c>
-      <c r="E93" s="22">
+      <c r="E93" s="21">
         <v>306800</v>
       </c>
-      <c r="F93" s="22">
+      <c r="F93" s="21">
         <v>270300</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="21">
+      <c r="A94" s="20">
         <v>41153</v>
       </c>
-      <c r="B94" s="22">
+      <c r="B94" s="21">
         <v>372900</v>
       </c>
-      <c r="C94" s="22">
+      <c r="C94" s="21">
         <v>316300</v>
       </c>
-      <c r="D94" s="22">
+      <c r="D94" s="21">
         <v>473500</v>
       </c>
-      <c r="E94" s="22">
+      <c r="E94" s="21">
         <v>306200</v>
       </c>
-      <c r="F94" s="22">
+      <c r="F94" s="21">
         <v>270200</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="21">
+      <c r="A95" s="20">
         <v>41183</v>
       </c>
-      <c r="B95" s="22">
+      <c r="B95" s="21">
         <v>372700</v>
       </c>
-      <c r="C95" s="22">
+      <c r="C95" s="21">
         <v>316200</v>
       </c>
-      <c r="D95" s="22">
+      <c r="D95" s="21">
         <v>473200</v>
       </c>
-      <c r="E95" s="22">
+      <c r="E95" s="21">
         <v>306700</v>
       </c>
-      <c r="F95" s="22">
+      <c r="F95" s="21">
         <v>269500</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="21">
+      <c r="A96" s="20">
         <v>41214</v>
       </c>
-      <c r="B96" s="22">
+      <c r="B96" s="21">
         <v>372300</v>
       </c>
-      <c r="C96" s="22">
+      <c r="C96" s="21">
         <v>316300</v>
       </c>
-      <c r="D96" s="22">
+      <c r="D96" s="21">
         <v>472700</v>
       </c>
-      <c r="E96" s="22">
+      <c r="E96" s="21">
         <v>306300</v>
       </c>
-      <c r="F96" s="22">
+      <c r="F96" s="21">
         <v>268200</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="21">
+      <c r="A97" s="20">
         <v>41244</v>
       </c>
-      <c r="B97" s="22">
+      <c r="B97" s="21">
         <v>373500</v>
       </c>
-      <c r="C97" s="22">
+      <c r="C97" s="21">
         <v>317000</v>
       </c>
-      <c r="D97" s="22">
+      <c r="D97" s="21">
         <v>474200</v>
       </c>
-      <c r="E97" s="22">
+      <c r="E97" s="21">
         <v>307700</v>
       </c>
-      <c r="F97" s="22">
+      <c r="F97" s="21">
         <v>268300</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="21">
+      <c r="A98" s="20">
         <v>41275</v>
       </c>
-      <c r="B98" s="22">
+      <c r="B98" s="21">
         <v>373300</v>
       </c>
-      <c r="C98" s="22">
+      <c r="C98" s="21">
         <v>316600</v>
       </c>
-      <c r="D98" s="22">
+      <c r="D98" s="21">
         <v>474100</v>
       </c>
-      <c r="E98" s="22">
+      <c r="E98" s="21">
         <v>308300</v>
       </c>
-      <c r="F98" s="22">
+      <c r="F98" s="21">
         <v>267800</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="21">
+      <c r="A99" s="20">
         <v>41306</v>
       </c>
-      <c r="B99" s="22">
+      <c r="B99" s="21">
         <v>374200</v>
       </c>
-      <c r="C99" s="22">
+      <c r="C99" s="21">
         <v>317600</v>
       </c>
-      <c r="D99" s="22">
+      <c r="D99" s="21">
         <v>475200</v>
       </c>
-      <c r="E99" s="22">
+      <c r="E99" s="21">
         <v>308000</v>
       </c>
-      <c r="F99" s="22">
+      <c r="F99" s="21">
         <v>268500</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="21">
+      <c r="A100" s="20">
         <v>41334</v>
       </c>
-      <c r="B100" s="22">
+      <c r="B100" s="21">
         <v>374800</v>
       </c>
-      <c r="C100" s="22">
+      <c r="C100" s="21">
         <v>318400</v>
       </c>
-      <c r="D100" s="22">
+      <c r="D100" s="21">
         <v>475700</v>
       </c>
-      <c r="E100" s="22">
+      <c r="E100" s="21">
         <v>308000</v>
       </c>
-      <c r="F100" s="22">
+      <c r="F100" s="21">
         <v>268800</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="21">
+      <c r="A101" s="20">
         <v>41365</v>
       </c>
-      <c r="B101" s="22">
+      <c r="B101" s="21">
         <v>375600</v>
       </c>
-      <c r="C101" s="22">
+      <c r="C101" s="21">
         <v>318300</v>
       </c>
-      <c r="D101" s="22">
+      <c r="D101" s="21">
         <v>477800</v>
       </c>
-      <c r="E101" s="22">
+      <c r="E101" s="21">
         <v>308400</v>
       </c>
-      <c r="F101" s="22">
+      <c r="F101" s="21">
         <v>268000</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="21">
+      <c r="A102" s="20">
         <v>41395</v>
       </c>
-      <c r="B102" s="22">
+      <c r="B102" s="21">
         <v>376500</v>
       </c>
-      <c r="C102" s="22">
+      <c r="C102" s="21">
         <v>318500</v>
       </c>
-      <c r="D102" s="22">
+      <c r="D102" s="21">
         <v>478700</v>
       </c>
-      <c r="E102" s="22">
+      <c r="E102" s="21">
         <v>309600</v>
       </c>
-      <c r="F102" s="22">
+      <c r="F102" s="21">
         <v>269200</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="21">
+      <c r="A103" s="20">
         <v>41426</v>
       </c>
-      <c r="B103" s="22">
+      <c r="B103" s="21">
         <v>377800</v>
       </c>
-      <c r="C103" s="22">
+      <c r="C103" s="21">
         <v>320000</v>
       </c>
-      <c r="D103" s="22">
+      <c r="D103" s="21">
         <v>480300</v>
       </c>
-      <c r="E103" s="22">
+      <c r="E103" s="21">
         <v>310200</v>
       </c>
-      <c r="F103" s="22">
+      <c r="F103" s="21">
         <v>269300</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="21">
+      <c r="A104" s="20">
         <v>41456</v>
       </c>
-      <c r="B104" s="22">
+      <c r="B104" s="21">
         <v>379700</v>
       </c>
-      <c r="C104" s="22">
+      <c r="C104" s="21">
         <v>321700</v>
       </c>
-      <c r="D104" s="22">
+      <c r="D104" s="21">
         <v>483000</v>
       </c>
-      <c r="E104" s="22">
+      <c r="E104" s="21">
         <v>310600</v>
       </c>
-      <c r="F104" s="22">
+      <c r="F104" s="21">
         <v>269900</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="21">
+      <c r="A105" s="20">
         <v>41487</v>
       </c>
-      <c r="B105" s="22">
+      <c r="B105" s="21">
         <v>381500</v>
       </c>
-      <c r="C105" s="22">
+      <c r="C105" s="21">
         <v>323000</v>
       </c>
-      <c r="D105" s="22">
+      <c r="D105" s="21">
         <v>485900</v>
       </c>
-      <c r="E105" s="22">
+      <c r="E105" s="21">
         <v>311100</v>
       </c>
-      <c r="F105" s="22">
+      <c r="F105" s="21">
         <v>270900</v>
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="21">
+      <c r="A106" s="20">
         <v>41518</v>
       </c>
-      <c r="B106" s="22">
+      <c r="B106" s="21">
         <v>383800</v>
       </c>
-      <c r="C106" s="22">
+      <c r="C106" s="21">
         <v>325600</v>
       </c>
-      <c r="D106" s="22">
+      <c r="D106" s="21">
         <v>488700</v>
       </c>
-      <c r="E106" s="22">
+      <c r="E106" s="21">
         <v>313500</v>
       </c>
-      <c r="F106" s="22">
+      <c r="F106" s="21">
         <v>271400</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="21">
+      <c r="A107" s="20">
         <v>41548</v>
       </c>
-      <c r="B107" s="22">
+      <c r="B107" s="21">
         <v>386200</v>
       </c>
-      <c r="C107" s="22">
+      <c r="C107" s="21">
         <v>327100</v>
       </c>
-      <c r="D107" s="22">
+      <c r="D107" s="21">
         <v>492700</v>
       </c>
-      <c r="E107" s="22">
+      <c r="E107" s="21">
         <v>314400</v>
       </c>
-      <c r="F107" s="22">
+      <c r="F107" s="21">
         <v>271800</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="21">
+      <c r="A108" s="20">
         <v>41579</v>
       </c>
-      <c r="B108" s="22">
+      <c r="B108" s="21">
         <v>388300</v>
       </c>
-      <c r="C108" s="22">
+      <c r="C108" s="21">
         <v>328800</v>
       </c>
-      <c r="D108" s="22">
+      <c r="D108" s="21">
         <v>495800</v>
       </c>
-      <c r="E108" s="22">
+      <c r="E108" s="21">
         <v>316200</v>
       </c>
-      <c r="F108" s="22">
+      <c r="F108" s="21">
         <v>272600</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="21">
+      <c r="A109" s="20">
         <v>41609</v>
       </c>
-      <c r="B109" s="22">
+      <c r="B109" s="21">
         <v>390100</v>
       </c>
-      <c r="C109" s="22">
+      <c r="C109" s="21">
         <v>330300</v>
       </c>
-      <c r="D109" s="22">
+      <c r="D109" s="21">
         <v>498100</v>
       </c>
-      <c r="E109" s="22">
+      <c r="E109" s="21">
         <v>317500</v>
       </c>
-      <c r="F109" s="22">
+      <c r="F109" s="21">
         <v>273300</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="21">
+      <c r="A110" s="20">
         <v>41640</v>
       </c>
-      <c r="B110" s="22">
+      <c r="B110" s="21">
         <v>392200</v>
       </c>
-      <c r="C110" s="22">
+      <c r="C110" s="21">
         <v>332700</v>
       </c>
-      <c r="D110" s="22">
+      <c r="D110" s="21">
         <v>500900</v>
       </c>
-      <c r="E110" s="22">
+      <c r="E110" s="21">
         <v>317900</v>
       </c>
-      <c r="F110" s="22">
+      <c r="F110" s="21">
         <v>274800</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="21">
+      <c r="A111" s="20">
         <v>41671</v>
       </c>
-      <c r="B111" s="22">
+      <c r="B111" s="21">
         <v>393400</v>
       </c>
-      <c r="C111" s="22">
+      <c r="C111" s="21">
         <v>333300</v>
       </c>
-      <c r="D111" s="22">
+      <c r="D111" s="21">
         <v>502600</v>
       </c>
-      <c r="E111" s="22">
+      <c r="E111" s="21">
         <v>319700</v>
       </c>
-      <c r="F111" s="22">
+      <c r="F111" s="21">
         <v>274800</v>
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="21">
+      <c r="A112" s="20">
         <v>41699</v>
       </c>
-      <c r="B112" s="22">
+      <c r="B112" s="21">
         <v>394000</v>
       </c>
-      <c r="C112" s="22">
+      <c r="C112" s="21">
         <v>333100</v>
       </c>
-      <c r="D112" s="22">
+      <c r="D112" s="21">
         <v>503800</v>
       </c>
-      <c r="E112" s="22">
+      <c r="E112" s="21">
         <v>321100</v>
       </c>
-      <c r="F112" s="22">
+      <c r="F112" s="21">
         <v>275100</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="21">
+      <c r="A113" s="20">
         <v>41730</v>
       </c>
-      <c r="B113" s="22">
+      <c r="B113" s="21">
         <v>395000</v>
       </c>
-      <c r="C113" s="22">
+      <c r="C113" s="21">
         <v>334000</v>
       </c>
-      <c r="D113" s="22">
+      <c r="D113" s="21">
         <v>504800</v>
       </c>
-      <c r="E113" s="22">
+      <c r="E113" s="21">
         <v>321900</v>
       </c>
-      <c r="F113" s="22">
+      <c r="F113" s="21">
         <v>276000</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="21">
+      <c r="A114" s="20">
         <v>41760</v>
       </c>
-      <c r="B114" s="22">
+      <c r="B114" s="21">
         <v>396300</v>
       </c>
-      <c r="C114" s="22">
+      <c r="C114" s="21">
         <v>334800</v>
       </c>
-      <c r="D114" s="22">
+      <c r="D114" s="21">
         <v>507300</v>
       </c>
-      <c r="E114" s="22">
+      <c r="E114" s="21">
         <v>322100</v>
       </c>
-      <c r="F114" s="22">
+      <c r="F114" s="21">
         <v>275500</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="21">
+      <c r="A115" s="20">
         <v>41791</v>
       </c>
-      <c r="B115" s="22">
+      <c r="B115" s="21">
         <v>398100</v>
       </c>
-      <c r="C115" s="22">
+      <c r="C115" s="21">
         <v>336300</v>
       </c>
-      <c r="D115" s="22">
+      <c r="D115" s="21">
         <v>509900</v>
       </c>
-      <c r="E115" s="22">
+      <c r="E115" s="21">
         <v>323700</v>
       </c>
-      <c r="F115" s="22">
+      <c r="F115" s="21">
         <v>276900</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="21">
+      <c r="A116" s="20">
         <v>41821</v>
       </c>
-      <c r="B116" s="22">
+      <c r="B116" s="21">
         <v>399800</v>
       </c>
-      <c r="C116" s="22">
+      <c r="C116" s="21">
         <v>337500</v>
       </c>
-      <c r="D116" s="22">
+      <c r="D116" s="21">
         <v>512500</v>
       </c>
-      <c r="E116" s="22">
+      <c r="E116" s="21">
         <v>324600</v>
       </c>
-      <c r="F116" s="22">
+      <c r="F116" s="21">
         <v>277500</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="21">
+      <c r="A117" s="20">
         <v>41852</v>
       </c>
-      <c r="B117" s="22">
+      <c r="B117" s="21">
         <v>402200</v>
       </c>
-      <c r="C117" s="22">
+      <c r="C117" s="21">
         <v>339100</v>
       </c>
-      <c r="D117" s="22">
+      <c r="D117" s="21">
         <v>516000</v>
       </c>
-      <c r="E117" s="22">
+      <c r="E117" s="21">
         <v>327100</v>
       </c>
-      <c r="F117" s="22">
+      <c r="F117" s="21">
         <v>278700</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="21">
+      <c r="A118" s="20">
         <v>41883</v>
       </c>
-      <c r="B118" s="22">
+      <c r="B118" s="21">
         <v>404800</v>
       </c>
-      <c r="C118" s="22">
+      <c r="C118" s="21">
         <v>340700</v>
       </c>
-      <c r="D118" s="22">
+      <c r="D118" s="21">
         <v>520000</v>
       </c>
-      <c r="E118" s="22">
+      <c r="E118" s="21">
         <v>328500</v>
       </c>
-      <c r="F118" s="22">
+      <c r="F118" s="21">
         <v>280000</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="21">
+      <c r="A119" s="20">
         <v>41913</v>
       </c>
-      <c r="B119" s="22">
+      <c r="B119" s="21">
         <v>407700</v>
       </c>
-      <c r="C119" s="22">
+      <c r="C119" s="21">
         <v>342600</v>
       </c>
-      <c r="D119" s="22">
+      <c r="D119" s="21">
         <v>524100</v>
       </c>
-      <c r="E119" s="22">
+      <c r="E119" s="21">
         <v>330700</v>
       </c>
-      <c r="F119" s="22">
+      <c r="F119" s="21">
         <v>282200</v>
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="21">
+      <c r="A120" s="20">
         <v>41944</v>
       </c>
-      <c r="B120" s="22">
+      <c r="B120" s="21">
         <v>410800</v>
       </c>
-      <c r="C120" s="22">
+      <c r="C120" s="21">
         <v>344500</v>
       </c>
-      <c r="D120" s="22">
+      <c r="D120" s="21">
         <v>528800</v>
       </c>
-      <c r="E120" s="22">
+      <c r="E120" s="21">
         <v>332300</v>
       </c>
-      <c r="F120" s="22">
+      <c r="F120" s="21">
         <v>284600</v>
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="21">
+      <c r="A121" s="20">
         <v>41974</v>
       </c>
-      <c r="B121" s="22">
+      <c r="B121" s="21">
         <v>413300</v>
       </c>
-      <c r="C121" s="22">
+      <c r="C121" s="21">
         <v>346100</v>
       </c>
-      <c r="D121" s="22">
+      <c r="D121" s="21">
         <v>532700</v>
       </c>
-      <c r="E121" s="22">
+      <c r="E121" s="21">
         <v>331800</v>
       </c>
-      <c r="F121" s="22">
+      <c r="F121" s="21">
         <v>285400</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="21">
+      <c r="A122" s="20">
         <v>42005</v>
       </c>
-      <c r="B122" s="22">
+      <c r="B122" s="21">
         <v>415100</v>
       </c>
-      <c r="C122" s="22">
+      <c r="C122" s="21">
         <v>347500</v>
       </c>
-      <c r="D122" s="22">
+      <c r="D122" s="21">
         <v>535300</v>
       </c>
-      <c r="E122" s="22">
+      <c r="E122" s="21">
         <v>336400</v>
       </c>
-      <c r="F122" s="22">
+      <c r="F122" s="21">
         <v>286000</v>
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="21">
+      <c r="A123" s="20">
         <v>42036</v>
       </c>
-      <c r="B123" s="22">
+      <c r="B123" s="21">
         <v>416400</v>
       </c>
-      <c r="C123" s="22">
+      <c r="C123" s="21">
         <v>348400</v>
       </c>
-      <c r="D123" s="22">
+      <c r="D123" s="21">
         <v>538000</v>
       </c>
-      <c r="E123" s="22">
+      <c r="E123" s="21">
         <v>336900</v>
       </c>
-      <c r="F123" s="22">
+      <c r="F123" s="21">
         <v>285500</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="21">
+      <c r="A124" s="20">
         <v>42064</v>
       </c>
-      <c r="B124" s="22">
+      <c r="B124" s="21">
         <v>418900</v>
       </c>
-      <c r="C124" s="22">
+      <c r="C124" s="21">
         <v>349300</v>
       </c>
-      <c r="D124" s="22">
+      <c r="D124" s="21">
         <v>542400</v>
       </c>
-      <c r="E124" s="22">
+      <c r="E124" s="21">
         <v>337800</v>
       </c>
-      <c r="F124" s="22">
+      <c r="F124" s="21">
         <v>286900</v>
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="21">
+      <c r="A125" s="20">
         <v>42095</v>
       </c>
-      <c r="B125" s="22">
+      <c r="B125" s="21">
         <v>421500</v>
       </c>
-      <c r="C125" s="22">
+      <c r="C125" s="21">
         <v>351200</v>
       </c>
-      <c r="D125" s="22">
+      <c r="D125" s="21">
         <v>546600</v>
       </c>
-      <c r="E125" s="22">
+      <c r="E125" s="21">
         <v>338400</v>
       </c>
-      <c r="F125" s="22">
+      <c r="F125" s="21">
         <v>287900</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="21">
+      <c r="A126" s="20">
         <v>42125</v>
       </c>
-      <c r="B126" s="22">
+      <c r="B126" s="21">
         <v>424600</v>
       </c>
-      <c r="C126" s="22">
+      <c r="C126" s="21">
         <v>352700</v>
       </c>
-      <c r="D126" s="22">
+      <c r="D126" s="21">
         <v>551700</v>
       </c>
-      <c r="E126" s="22">
+      <c r="E126" s="21">
         <v>340400</v>
       </c>
-      <c r="F126" s="22">
+      <c r="F126" s="21">
         <v>288900</v>
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="21">
+      <c r="A127" s="20">
         <v>42156</v>
       </c>
-      <c r="B127" s="22">
+      <c r="B127" s="21">
         <v>428900</v>
       </c>
-      <c r="C127" s="22">
+      <c r="C127" s="21">
         <v>355700</v>
       </c>
-      <c r="D127" s="22">
+      <c r="D127" s="21">
         <v>558900</v>
       </c>
-      <c r="E127" s="22">
+      <c r="E127" s="21">
         <v>342400</v>
       </c>
-      <c r="F127" s="22">
+      <c r="F127" s="21">
         <v>290300</v>
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="21">
+      <c r="A128" s="20">
         <v>42186</v>
       </c>
-      <c r="B128" s="22">
+      <c r="B128" s="21">
         <v>433600</v>
       </c>
-      <c r="C128" s="22">
+      <c r="C128" s="21">
         <v>358900</v>
       </c>
-      <c r="D128" s="22">
+      <c r="D128" s="21">
         <v>566000</v>
       </c>
-      <c r="E128" s="22">
+      <c r="E128" s="21">
         <v>344700</v>
       </c>
-      <c r="F128" s="22">
+      <c r="F128" s="21">
         <v>292400</v>
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="21">
+      <c r="A129" s="20">
         <v>42217</v>
       </c>
-      <c r="B129" s="22">
+      <c r="B129" s="21">
         <v>438700</v>
       </c>
-      <c r="C129" s="22">
+      <c r="C129" s="21">
         <v>363300</v>
       </c>
-      <c r="D129" s="22">
+      <c r="D129" s="21">
         <v>573400</v>
       </c>
-      <c r="E129" s="22">
+      <c r="E129" s="21">
         <v>347800</v>
       </c>
-      <c r="F129" s="22">
+      <c r="F129" s="21">
         <v>294500</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="21">
+      <c r="A130" s="20">
         <v>42248</v>
       </c>
-      <c r="B130" s="22">
+      <c r="B130" s="21">
         <v>443200</v>
       </c>
-      <c r="C130" s="22">
+      <c r="C130" s="21">
         <v>366600</v>
       </c>
-      <c r="D130" s="22">
+      <c r="D130" s="21">
         <v>579900</v>
       </c>
-      <c r="E130" s="22">
+      <c r="E130" s="21">
         <v>351600</v>
       </c>
-      <c r="F130" s="22">
+      <c r="F130" s="21">
         <v>297600</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="21">
+      <c r="A131" s="20">
         <v>42278</v>
       </c>
-      <c r="B131" s="22">
+      <c r="B131" s="21">
         <v>447900</v>
       </c>
-      <c r="C131" s="22">
+      <c r="C131" s="21">
         <v>369800</v>
       </c>
-      <c r="D131" s="22">
+      <c r="D131" s="21">
         <v>586500</v>
       </c>
-      <c r="E131" s="22">
+      <c r="E131" s="21">
         <v>355900</v>
       </c>
-      <c r="F131" s="22">
+      <c r="F131" s="21">
         <v>300100</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="21">
+      <c r="A132" s="20">
         <v>42309</v>
       </c>
-      <c r="B132" s="22">
+      <c r="B132" s="21">
         <v>452700</v>
       </c>
-      <c r="C132" s="22">
+      <c r="C132" s="21">
         <v>372900</v>
       </c>
-      <c r="D132" s="22">
+      <c r="D132" s="21">
         <v>594000</v>
       </c>
-      <c r="E132" s="22">
+      <c r="E132" s="21">
         <v>359600</v>
       </c>
-      <c r="F132" s="22">
+      <c r="F132" s="21">
         <v>302800</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="21">
+      <c r="A133" s="20">
         <v>42339</v>
       </c>
-      <c r="B133" s="22">
+      <c r="B133" s="21">
         <v>457100</v>
       </c>
-      <c r="C133" s="22">
+      <c r="C133" s="21">
         <v>376400</v>
       </c>
-      <c r="D133" s="22">
+      <c r="D133" s="21">
         <v>599400</v>
       </c>
-      <c r="E133" s="22">
+      <c r="E133" s="21">
         <v>363000</v>
       </c>
-      <c r="F133" s="22">
+      <c r="F133" s="21">
         <v>305200</v>
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="21">
+      <c r="A134" s="20">
         <v>42370</v>
       </c>
-      <c r="B134" s="22">
+      <c r="B134" s="21">
         <v>463100</v>
       </c>
-      <c r="C134" s="22">
+      <c r="C134" s="21">
         <v>379900</v>
       </c>
-      <c r="D134" s="22">
+      <c r="D134" s="21">
         <v>610200</v>
       </c>
-      <c r="E134" s="22">
+      <c r="E134" s="21">
         <v>366000</v>
       </c>
-      <c r="F134" s="22">
+      <c r="F134" s="21">
         <v>308100</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="21">
+      <c r="A135" s="20">
         <v>42401</v>
       </c>
-      <c r="B135" s="22">
+      <c r="B135" s="21">
         <v>469600</v>
       </c>
-      <c r="C135" s="22">
+      <c r="C135" s="21">
         <v>385100</v>
       </c>
-      <c r="D135" s="22">
+      <c r="D135" s="21">
         <v>620000</v>
       </c>
-      <c r="E135" s="22">
+      <c r="E135" s="21">
         <v>369100</v>
       </c>
-      <c r="F135" s="22">
+      <c r="F135" s="21">
         <v>311800</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="21">
+      <c r="A136" s="20">
         <v>42430</v>
       </c>
-      <c r="B136" s="22">
+      <c r="B136" s="21">
         <v>476200</v>
       </c>
-      <c r="C136" s="22">
+      <c r="C136" s="21">
         <v>390700</v>
       </c>
-      <c r="D136" s="22">
+      <c r="D136" s="21">
         <v>630100</v>
       </c>
-      <c r="E136" s="22">
+      <c r="E136" s="21">
         <v>374500</v>
       </c>
-      <c r="F136" s="22">
+      <c r="F136" s="21">
         <v>313700</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="21">
+      <c r="A137" s="20">
         <v>42461</v>
       </c>
-      <c r="B137" s="22">
+      <c r="B137" s="21">
         <v>484400</v>
       </c>
-      <c r="C137" s="22">
+      <c r="C137" s="21">
         <v>397500</v>
       </c>
-      <c r="D137" s="22">
+      <c r="D137" s="21">
         <v>641900</v>
       </c>
-      <c r="E137" s="22">
+      <c r="E137" s="21">
         <v>380900</v>
       </c>
-      <c r="F137" s="22">
+      <c r="F137" s="21">
         <v>316900</v>
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="21">
+      <c r="A138" s="20">
         <v>42491</v>
       </c>
-      <c r="B138" s="22">
+      <c r="B138" s="21">
         <v>493700</v>
       </c>
-      <c r="C138" s="22">
+      <c r="C138" s="21">
         <v>405300</v>
       </c>
-      <c r="D138" s="22">
+      <c r="D138" s="21">
         <v>655000</v>
       </c>
-      <c r="E138" s="22">
+      <c r="E138" s="21">
         <v>387900</v>
       </c>
-      <c r="F138" s="22">
+      <c r="F138" s="21">
         <v>321600</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="21">
+      <c r="A139" s="20">
         <v>42522</v>
       </c>
-      <c r="B139" s="22">
+      <c r="B139" s="21">
         <v>502300</v>
       </c>
-      <c r="C139" s="22">
+      <c r="C139" s="21">
         <v>411800</v>
       </c>
-      <c r="D139" s="22">
+      <c r="D139" s="21">
         <v>666800</v>
       </c>
-      <c r="E139" s="22">
+      <c r="E139" s="21">
         <v>395000</v>
       </c>
-      <c r="F139" s="22">
+      <c r="F139" s="21">
         <v>327700</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="21">
+      <c r="A140" s="20">
         <v>42552</v>
       </c>
-      <c r="B140" s="22">
+      <c r="B140" s="21">
         <v>510000</v>
       </c>
-      <c r="C140" s="22">
+      <c r="C140" s="21">
         <v>416800</v>
       </c>
-      <c r="D140" s="22">
+      <c r="D140" s="21">
         <v>678200</v>
       </c>
-      <c r="E140" s="22">
+      <c r="E140" s="21">
         <v>402300</v>
       </c>
-      <c r="F140" s="22">
+      <c r="F140" s="21">
         <v>332200</v>
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="21">
+      <c r="A141" s="20">
         <v>42583</v>
       </c>
-      <c r="B141" s="22">
+      <c r="B141" s="21">
         <v>515000</v>
       </c>
-      <c r="C141" s="22">
+      <c r="C141" s="21">
         <v>420100</v>
       </c>
-      <c r="D141" s="22">
+      <c r="D141" s="21">
         <v>685600</v>
       </c>
-      <c r="E141" s="22">
+      <c r="E141" s="21">
         <v>407800</v>
       </c>
-      <c r="F141" s="22">
+      <c r="F141" s="21">
         <v>335600</v>
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="21">
+      <c r="A142" s="20">
         <v>42614</v>
       </c>
-      <c r="B142" s="22">
+      <c r="B142" s="21">
         <v>519800</v>
       </c>
-      <c r="C142" s="22">
+      <c r="C142" s="21">
         <v>422800</v>
       </c>
-      <c r="D142" s="22">
+      <c r="D142" s="21">
         <v>692400</v>
       </c>
-      <c r="E142" s="22">
+      <c r="E142" s="21">
         <v>412400</v>
       </c>
-      <c r="F142" s="22">
+      <c r="F142" s="21">
         <v>339200</v>
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="21">
+      <c r="A143" s="20">
         <v>42644</v>
       </c>
-      <c r="B143" s="22">
+      <c r="B143" s="21">
         <v>522500</v>
       </c>
-      <c r="C143" s="22">
+      <c r="C143" s="21">
         <v>426000</v>
       </c>
-      <c r="D143" s="22">
+      <c r="D143" s="21">
         <v>695200</v>
       </c>
-      <c r="E143" s="22">
+      <c r="E143" s="21">
         <v>415300</v>
       </c>
-      <c r="F143" s="22">
+      <c r="F143" s="21">
         <v>342000</v>
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="21">
+      <c r="A144" s="20">
         <v>42675</v>
       </c>
-      <c r="B144" s="22">
+      <c r="B144" s="21">
         <v>526200</v>
       </c>
-      <c r="C144" s="22">
+      <c r="C144" s="21">
         <v>428800</v>
       </c>
-      <c r="D144" s="22">
+      <c r="D144" s="21">
         <v>699000</v>
       </c>
-      <c r="E144" s="22">
+      <c r="E144" s="21">
         <v>420800</v>
       </c>
-      <c r="F144" s="22">
+      <c r="F144" s="21">
         <v>346600</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="21">
+      <c r="A145" s="20">
         <v>42705</v>
       </c>
-      <c r="B145" s="22">
+      <c r="B145" s="21">
         <v>529300</v>
       </c>
-      <c r="C145" s="22">
+      <c r="C145" s="21">
         <v>431300</v>
       </c>
-      <c r="D145" s="22">
+      <c r="D145" s="21">
         <v>701000</v>
       </c>
-      <c r="E145" s="22">
+      <c r="E145" s="21">
         <v>423300</v>
       </c>
-      <c r="F145" s="22">
+      <c r="F145" s="21">
         <v>351200</v>
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="21">
+      <c r="A146" s="20">
         <v>42736</v>
       </c>
-      <c r="B146" s="22">
+      <c r="B146" s="21">
         <v>537300</v>
       </c>
-      <c r="C146" s="22">
+      <c r="C146" s="21">
         <v>436500</v>
       </c>
-      <c r="D146" s="22">
+      <c r="D146" s="21">
         <v>713400</v>
       </c>
-      <c r="E146" s="22">
+      <c r="E146" s="21">
         <v>433300</v>
       </c>
-      <c r="F146" s="22">
+      <c r="F146" s="21">
         <v>356400</v>
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="21">
+      <c r="A147" s="20">
         <v>42767</v>
       </c>
-      <c r="B147" s="22">
+      <c r="B147" s="21">
         <v>549300</v>
       </c>
-      <c r="C147" s="22">
+      <c r="C147" s="21">
         <v>446300</v>
       </c>
-      <c r="D147" s="22">
+      <c r="D147" s="21">
         <v>730600</v>
       </c>
-      <c r="E147" s="22">
+      <c r="E147" s="21">
         <v>443600</v>
       </c>
-      <c r="F147" s="22">
+      <c r="F147" s="21">
         <v>362500</v>
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="21">
+      <c r="A148" s="20">
         <v>42795</v>
       </c>
-      <c r="B148" s="22">
+      <c r="B148" s="21">
         <v>563000</v>
       </c>
-      <c r="C148" s="22">
+      <c r="C148" s="21">
         <v>457500</v>
       </c>
-      <c r="D148" s="22">
+      <c r="D148" s="21">
         <v>749500</v>
       </c>
-      <c r="E148" s="22">
+      <c r="E148" s="21">
         <v>451100</v>
       </c>
-      <c r="F148" s="22">
+      <c r="F148" s="21">
         <v>373900</v>
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="21">
+      <c r="A149" s="20">
         <v>42826</v>
       </c>
-      <c r="B149" s="22">
+      <c r="B149" s="21">
         <v>569300</v>
       </c>
-      <c r="C149" s="22">
+      <c r="C149" s="21">
         <v>462600</v>
       </c>
-      <c r="D149" s="22">
+      <c r="D149" s="21">
         <v>754700</v>
       </c>
-      <c r="E149" s="22">
+      <c r="E149" s="21">
         <v>459600</v>
       </c>
-      <c r="F149" s="22">
+      <c r="F149" s="21">
         <v>384200</v>
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="21">
+      <c r="A150" s="20">
         <v>42856</v>
       </c>
-      <c r="B150" s="22">
+      <c r="B150" s="21">
         <v>567400</v>
       </c>
-      <c r="C150" s="22">
+      <c r="C150" s="21">
         <v>460300</v>
       </c>
-      <c r="D150" s="22">
+      <c r="D150" s="21">
         <v>748900</v>
       </c>
-      <c r="E150" s="22">
+      <c r="E150" s="21">
         <v>463900</v>
       </c>
-      <c r="F150" s="22">
+      <c r="F150" s="21">
         <v>390600</v>
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="21">
+      <c r="A151" s="20">
         <v>42887</v>
       </c>
-      <c r="B151" s="22">
+      <c r="B151" s="21">
         <v>562900</v>
       </c>
-      <c r="C151" s="22">
+      <c r="C151" s="21">
         <v>456400</v>
       </c>
-      <c r="D151" s="22">
+      <c r="D151" s="21">
         <v>739700</v>
       </c>
-      <c r="E151" s="22">
+      <c r="E151" s="21">
         <v>465700</v>
       </c>
-      <c r="F151" s="22">
+      <c r="F151" s="21">
         <v>393900</v>
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="21">
+      <c r="A152" s="20">
         <v>42917</v>
       </c>
-      <c r="B152" s="22">
+      <c r="B152" s="21">
         <v>558000</v>
       </c>
-      <c r="C152" s="22">
+      <c r="C152" s="21">
         <v>453200</v>
       </c>
-      <c r="D152" s="22">
+      <c r="D152" s="21">
         <v>728900</v>
       </c>
-      <c r="E152" s="22">
+      <c r="E152" s="21">
         <v>467800</v>
       </c>
-      <c r="F152" s="22">
+      <c r="F152" s="21">
         <v>396800</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="21">
+      <c r="A153" s="20">
         <v>42948</v>
       </c>
-      <c r="B153" s="22">
+      <c r="B153" s="21">
         <v>555700</v>
       </c>
-      <c r="C153" s="22">
+      <c r="C153" s="21">
         <v>450800</v>
       </c>
-      <c r="D153" s="22">
+      <c r="D153" s="21">
         <v>723200</v>
       </c>
-      <c r="E153" s="22">
+      <c r="E153" s="21">
         <v>468900</v>
       </c>
-      <c r="F153" s="22">
+      <c r="F153" s="21">
         <v>401300</v>
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="21">
+      <c r="A154" s="20">
         <v>42979</v>
       </c>
-      <c r="B154" s="22">
+      <c r="B154" s="21">
         <v>555500</v>
       </c>
-      <c r="C154" s="22">
+      <c r="C154" s="21">
         <v>451200</v>
       </c>
-      <c r="D154" s="22">
+      <c r="D154" s="21">
         <v>721400</v>
       </c>
-      <c r="E154" s="22">
+      <c r="E154" s="21">
         <v>470200</v>
       </c>
-      <c r="F154" s="22">
+      <c r="F154" s="21">
         <v>404900</v>
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="21">
+      <c r="A155" s="20">
         <v>43009</v>
       </c>
-      <c r="B155" s="22">
+      <c r="B155" s="21">
         <v>556700</v>
       </c>
-      <c r="C155" s="22">
+      <c r="C155" s="21">
         <v>451500</v>
       </c>
-      <c r="D155" s="22">
+      <c r="D155" s="21">
         <v>721000</v>
       </c>
-      <c r="E155" s="22">
+      <c r="E155" s="21">
         <v>474700</v>
       </c>
-      <c r="F155" s="22">
+      <c r="F155" s="21">
         <v>410500</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="21">
+      <c r="A156" s="20">
         <v>43040</v>
       </c>
-      <c r="B156" s="22">
+      <c r="B156" s="21">
         <v>558400</v>
       </c>
-      <c r="C156" s="22">
+      <c r="C156" s="21">
         <v>452900</v>
       </c>
-      <c r="D156" s="22">
+      <c r="D156" s="21">
         <v>722000</v>
       </c>
-      <c r="E156" s="22">
+      <c r="E156" s="21">
         <v>476900</v>
       </c>
-      <c r="F156" s="22">
+      <c r="F156" s="21">
         <v>414700</v>
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="21">
+      <c r="A157" s="20">
         <v>43070</v>
       </c>
-      <c r="B157" s="22">
+      <c r="B157" s="21">
         <v>558900</v>
       </c>
-      <c r="C157" s="22">
+      <c r="C157" s="21">
         <v>454900</v>
       </c>
-      <c r="D157" s="22">
+      <c r="D157" s="21">
         <v>719200</v>
       </c>
-      <c r="E157" s="22">
+      <c r="E157" s="21">
         <v>480100</v>
       </c>
-      <c r="F157" s="22">
+      <c r="F157" s="21">
         <v>418400</v>
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="21">
+      <c r="A158" s="20">
         <v>43101</v>
       </c>
-      <c r="B158" s="22">
+      <c r="B158" s="21">
         <v>557800</v>
       </c>
-      <c r="C158" s="22">
+      <c r="C158" s="21">
         <v>453600</v>
       </c>
-      <c r="D158" s="22">
+      <c r="D158" s="21">
         <v>715900</v>
       </c>
-      <c r="E158" s="22">
+      <c r="E158" s="21">
         <v>482700</v>
       </c>
-      <c r="F158" s="22">
+      <c r="F158" s="21">
         <v>422500</v>
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="21">
+      <c r="A159" s="20">
         <v>43132</v>
       </c>
-      <c r="B159" s="22">
+      <c r="B159" s="21">
         <v>554900</v>
       </c>
-      <c r="C159" s="22">
+      <c r="C159" s="21">
         <v>452700</v>
       </c>
-      <c r="D159" s="22">
+      <c r="D159" s="21">
         <v>709500</v>
       </c>
-      <c r="E159" s="22">
+      <c r="E159" s="21">
         <v>483300</v>
       </c>
-      <c r="F159" s="22">
+      <c r="F159" s="21">
         <v>423200</v>
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="21">
+      <c r="A160" s="20">
         <v>43160</v>
       </c>
-      <c r="B160" s="22">
+      <c r="B160" s="21">
         <v>552600</v>
       </c>
-      <c r="C160" s="22">
+      <c r="C160" s="21">
         <v>451600</v>
       </c>
-      <c r="D160" s="22">
+      <c r="D160" s="21">
         <v>703600</v>
       </c>
-      <c r="E160" s="22">
+      <c r="E160" s="21">
         <v>486000</v>
       </c>
-      <c r="F160" s="22">
+      <c r="F160" s="21">
         <v>426100</v>
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="21">
+      <c r="A161" s="20">
         <v>43191</v>
       </c>
-      <c r="B161" s="22">
+      <c r="B161" s="21">
         <v>550700</v>
       </c>
-      <c r="C161" s="22">
+      <c r="C161" s="21">
         <v>450800</v>
       </c>
-      <c r="D161" s="22">
+      <c r="D161" s="21">
         <v>700400</v>
       </c>
-      <c r="E161" s="22">
+      <c r="E161" s="21">
         <v>485900</v>
       </c>
-      <c r="F161" s="22">
+      <c r="F161" s="21">
         <v>426300</v>
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="21">
+      <c r="A162" s="20">
         <v>43221</v>
       </c>
-      <c r="B162" s="22">
+      <c r="B162" s="21">
         <v>549900</v>
       </c>
-      <c r="C162" s="22">
+      <c r="C162" s="21">
         <v>449800</v>
       </c>
-      <c r="D162" s="22">
+      <c r="D162" s="21">
         <v>698800</v>
       </c>
-      <c r="E162" s="22">
+      <c r="E162" s="21">
         <v>486600</v>
       </c>
-      <c r="F162" s="22">
+      <c r="F162" s="21">
         <v>428300</v>
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="21">
+      <c r="A163" s="20">
         <v>43252</v>
       </c>
-      <c r="B163" s="22">
+      <c r="B163" s="21">
         <v>549500</v>
       </c>
-      <c r="C163" s="22">
+      <c r="C163" s="21">
         <v>448100</v>
       </c>
-      <c r="D163" s="22">
+      <c r="D163" s="21">
         <v>698800</v>
       </c>
-      <c r="E163" s="22">
+      <c r="E163" s="21">
         <v>488900</v>
       </c>
-      <c r="F163" s="22">
+      <c r="F163" s="21">
         <v>428900</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="21">
+      <c r="A164" s="20">
         <v>43282</v>
       </c>
-      <c r="B164" s="22">
+      <c r="B164" s="21">
         <v>549700</v>
       </c>
-      <c r="C164" s="22">
+      <c r="C164" s="21">
         <v>448200</v>
       </c>
-      <c r="D164" s="22">
+      <c r="D164" s="21">
         <v>698000</v>
       </c>
-      <c r="E164" s="22">
+      <c r="E164" s="21">
         <v>489900</v>
       </c>
-      <c r="F164" s="22">
+      <c r="F164" s="21">
         <v>430900</v>
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="21">
+      <c r="A165" s="20">
         <v>43313</v>
       </c>
-      <c r="B165" s="22">
+      <c r="B165" s="21">
         <v>549200</v>
       </c>
-      <c r="C165" s="22">
+      <c r="C165" s="21">
         <v>448800</v>
       </c>
-      <c r="D165" s="22">
+      <c r="D165" s="21">
         <v>696700</v>
       </c>
-      <c r="E165" s="22">
+      <c r="E165" s="21">
         <v>489200</v>
       </c>
-      <c r="F165" s="22">
+      <c r="F165" s="21">
         <v>430900</v>
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="21">
+      <c r="A166" s="20">
         <v>43344</v>
       </c>
-      <c r="B166" s="22">
+      <c r="B166" s="21">
         <v>548000</v>
       </c>
-      <c r="C166" s="22">
+      <c r="C166" s="21">
         <v>447600</v>
       </c>
-      <c r="D166" s="22">
+      <c r="D166" s="21">
         <v>694800</v>
       </c>
-      <c r="E166" s="22">
+      <c r="E166" s="21">
         <v>490400</v>
       </c>
-      <c r="F166" s="22">
+      <c r="F166" s="21">
         <v>431100</v>
       </c>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="21">
+      <c r="A167" s="20">
         <v>43374</v>
       </c>
-      <c r="B167" s="22">
+      <c r="B167" s="21">
         <v>547400</v>
       </c>
-      <c r="C167" s="22">
+      <c r="C167" s="21">
         <v>448300</v>
       </c>
-      <c r="D167" s="22">
+      <c r="D167" s="21">
         <v>693700</v>
       </c>
-      <c r="E167" s="22">
+      <c r="E167" s="21">
         <v>489600</v>
       </c>
-      <c r="F167" s="22">
+      <c r="F167" s="21">
         <v>431400</v>
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="21">
+      <c r="A168" s="20">
         <v>43405</v>
       </c>
-      <c r="B168" s="22">
+      <c r="B168" s="21">
         <v>544200</v>
       </c>
-      <c r="C168" s="22">
+      <c r="C168" s="21">
         <v>445700</v>
       </c>
-      <c r="D168" s="22">
+      <c r="D168" s="21">
         <v>689100</v>
       </c>
-      <c r="E168" s="22">
+      <c r="E168" s="21">
         <v>489400</v>
       </c>
-      <c r="F168" s="22">
+      <c r="F168" s="21">
         <v>428800</v>
       </c>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="21">
+      <c r="A169" s="20">
         <v>43435</v>
       </c>
-      <c r="B169" s="22">
+      <c r="B169" s="21">
         <v>540800</v>
       </c>
-      <c r="C169" s="22">
+      <c r="C169" s="21">
         <v>442000</v>
       </c>
-      <c r="D169" s="22">
+      <c r="D169" s="21">
         <v>684000</v>
       </c>
-      <c r="E169" s="22">
+      <c r="E169" s="21">
         <v>486200</v>
       </c>
-      <c r="F169" s="22">
+      <c r="F169" s="21">
         <v>429100</v>
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="21">
+      <c r="A170" s="20">
         <v>43466</v>
       </c>
-      <c r="B170" s="22">
+      <c r="B170" s="21">
         <v>535000</v>
       </c>
-      <c r="C170" s="22">
+      <c r="C170" s="21">
         <v>439100</v>
       </c>
-      <c r="D170" s="22">
+      <c r="D170" s="21">
         <v>675300</v>
       </c>
-      <c r="E170" s="22">
+      <c r="E170" s="21">
         <v>481700</v>
       </c>
-      <c r="F170" s="22">
+      <c r="F170" s="21">
         <v>424800</v>
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="21">
+      <c r="A171" s="20">
         <v>43497</v>
       </c>
-      <c r="B171" s="22">
+      <c r="B171" s="21">
         <v>528400</v>
       </c>
-      <c r="C171" s="22">
+      <c r="C171" s="21">
         <v>433300</v>
       </c>
-      <c r="D171" s="22">
+      <c r="D171" s="21">
         <v>666300</v>
       </c>
-      <c r="E171" s="22">
+      <c r="E171" s="21">
         <v>477200</v>
       </c>
-      <c r="F171" s="22">
+      <c r="F171" s="21">
         <v>421000</v>
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="21">
+      <c r="A172" s="20">
         <v>43525</v>
       </c>
-      <c r="B172" s="22">
+      <c r="B172" s="21">
         <v>524400</v>
       </c>
-      <c r="C172" s="22">
+      <c r="C172" s="21">
         <v>431500</v>
       </c>
-      <c r="D172" s="22">
+      <c r="D172" s="21">
         <v>660700</v>
       </c>
-      <c r="E172" s="22">
+      <c r="E172" s="21">
         <v>473400</v>
       </c>
-      <c r="F172" s="22">
+      <c r="F172" s="21">
         <v>417100</v>
       </c>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="21">
+      <c r="A173" s="20">
         <v>43556</v>
       </c>
-      <c r="B173" s="22">
+      <c r="B173" s="21">
         <v>524300</v>
       </c>
-      <c r="C173" s="22">
+      <c r="C173" s="21">
         <v>431500</v>
       </c>
-      <c r="D173" s="22">
+      <c r="D173" s="21">
         <v>661400</v>
       </c>
-      <c r="E173" s="22">
+      <c r="E173" s="21">
         <v>473900</v>
       </c>
-      <c r="F173" s="22">
+      <c r="F173" s="21">
         <v>416700</v>
       </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="21">
+      <c r="A174" s="20">
         <v>43586</v>
       </c>
-      <c r="B174" s="22">
+      <c r="B174" s="21">
         <v>525300</v>
       </c>
-      <c r="C174" s="22">
+      <c r="C174" s="21">
         <v>432600</v>
       </c>
-      <c r="D174" s="22">
+      <c r="D174" s="21">
         <v>663100</v>
       </c>
-      <c r="E174" s="22">
+      <c r="E174" s="21">
         <v>476200</v>
       </c>
-      <c r="F174" s="22">
+      <c r="F174" s="21">
         <v>416300</v>
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="21">
+      <c r="A175" s="20">
         <v>43617</v>
       </c>
-      <c r="B175" s="22">
+      <c r="B175" s="21">
         <v>528000</v>
       </c>
-      <c r="C175" s="22">
+      <c r="C175" s="21">
         <v>435500</v>
       </c>
-      <c r="D175" s="22">
+      <c r="D175" s="21">
         <v>666000</v>
       </c>
-      <c r="E175" s="22">
+      <c r="E175" s="21">
         <v>477400</v>
       </c>
-      <c r="F175" s="22">
+      <c r="F175" s="21">
         <v>418500</v>
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="21">
+      <c r="A176" s="20">
         <v>43647</v>
       </c>
-      <c r="B176" s="22">
+      <c r="B176" s="21">
         <v>530900</v>
       </c>
-      <c r="C176" s="22">
+      <c r="C176" s="21">
         <v>436800</v>
       </c>
-      <c r="D176" s="22">
+      <c r="D176" s="21">
         <v>670800</v>
       </c>
-      <c r="E176" s="22">
+      <c r="E176" s="21">
         <v>479200</v>
       </c>
-      <c r="F176" s="22">
+      <c r="F176" s="21">
         <v>420500</v>
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="21">
+      <c r="A177" s="20">
         <v>43678</v>
       </c>
-      <c r="B177" s="22">
+      <c r="B177" s="21">
         <v>533600</v>
       </c>
-      <c r="C177" s="22">
+      <c r="C177" s="21">
         <v>438600</v>
       </c>
-      <c r="D177" s="22">
+      <c r="D177" s="21">
         <v>674000</v>
       </c>
-      <c r="E177" s="22">
+      <c r="E177" s="21">
         <v>484300</v>
       </c>
-      <c r="F177" s="22">
+      <c r="F177" s="21">
         <v>423000</v>
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="21">
+      <c r="A178" s="20">
         <v>43709</v>
       </c>
-      <c r="B178" s="22">
+      <c r="B178" s="21">
         <v>536900</v>
       </c>
-      <c r="C178" s="22">
+      <c r="C178" s="21">
         <v>441400</v>
       </c>
-      <c r="D178" s="22">
+      <c r="D178" s="21">
         <v>678100</v>
       </c>
-      <c r="E178" s="22">
+      <c r="E178" s="21">
         <v>487700</v>
       </c>
-      <c r="F178" s="22">
+      <c r="F178" s="21">
         <v>427000</v>
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="21">
+      <c r="A179" s="20">
         <v>43739</v>
       </c>
-      <c r="B179" s="22">
+      <c r="B179" s="21">
         <v>540000</v>
       </c>
-      <c r="C179" s="22">
+      <c r="C179" s="21">
         <v>443700</v>
       </c>
-      <c r="D179" s="22">
+      <c r="D179" s="21">
         <v>682400</v>
       </c>
-      <c r="E179" s="22">
+      <c r="E179" s="21">
         <v>491600</v>
       </c>
-      <c r="F179" s="22">
+      <c r="F179" s="21">
         <v>429000</v>
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="21">
+      <c r="A180" s="20">
         <v>43770</v>
       </c>
-      <c r="B180" s="22">
+      <c r="B180" s="21">
         <v>542000</v>
       </c>
-      <c r="C180" s="22">
+      <c r="C180" s="21">
         <v>445300</v>
       </c>
-      <c r="D180" s="22">
+      <c r="D180" s="21">
         <v>683800</v>
       </c>
-      <c r="E180" s="22">
+      <c r="E180" s="21">
         <v>494300</v>
       </c>
-      <c r="F180" s="22">
+      <c r="F180" s="21">
         <v>434100</v>
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="21">
+      <c r="A181" s="20">
         <v>43800</v>
       </c>
-      <c r="B181" s="22">
+      <c r="B181" s="21">
         <v>543400</v>
       </c>
-      <c r="C181" s="22">
+      <c r="C181" s="21">
         <v>446500</v>
       </c>
-      <c r="D181" s="22">
+      <c r="D181" s="21">
         <v>684400</v>
       </c>
-      <c r="E181" s="22">
+      <c r="E181" s="21">
         <v>496800</v>
       </c>
-      <c r="F181" s="22">
+      <c r="F181" s="21">
         <v>436800</v>
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="21">
+      <c r="A182" s="20">
         <v>43831</v>
       </c>
-      <c r="B182" s="22">
+      <c r="B182" s="21">
         <v>544800</v>
       </c>
-      <c r="C182" s="22">
+      <c r="C182" s="21">
         <v>446900</v>
       </c>
-      <c r="D182" s="22">
+      <c r="D182" s="21">
         <v>683600</v>
       </c>
-      <c r="E182" s="22">
+      <c r="E182" s="21">
         <v>500000</v>
       </c>
-      <c r="F182" s="22">
+      <c r="F182" s="21">
         <v>440400</v>
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="21">
+      <c r="A183" s="20">
         <v>43862</v>
       </c>
-      <c r="B183" s="22">
+      <c r="B183" s="21">
         <v>546600</v>
       </c>
-      <c r="C183" s="22">
+      <c r="C183" s="21">
         <v>447400</v>
       </c>
-      <c r="D183" s="22">
+      <c r="D183" s="21">
         <v>685300</v>
       </c>
-      <c r="E183" s="22">
+      <c r="E183" s="21">
         <v>499100</v>
       </c>
-      <c r="F183" s="22">
+      <c r="F183" s="21">
         <v>443300</v>
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="21">
+      <c r="A184" s="20">
         <v>43891</v>
       </c>
-      <c r="B184" s="22">
+      <c r="B184" s="21">
         <v>546300</v>
       </c>
-      <c r="C184" s="22">
+      <c r="C184" s="21">
         <v>445800</v>
       </c>
-      <c r="D184" s="22">
+      <c r="D184" s="21">
         <v>686200</v>
       </c>
-      <c r="E184" s="22">
+      <c r="E184" s="21">
         <v>496700</v>
       </c>
-      <c r="F184" s="22">
+      <c r="F184" s="21">
         <v>442300</v>
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="21">
+      <c r="A185" s="20">
         <v>43922</v>
       </c>
-      <c r="B185" s="22">
+      <c r="B185" s="21">
         <v>539500</v>
       </c>
-      <c r="C185" s="22">
+      <c r="C185" s="21">
         <v>439500</v>
       </c>
-      <c r="D185" s="22">
+      <c r="D185" s="21">
         <v>678200</v>
       </c>
-      <c r="E185" s="22">
+      <c r="E185" s="21">
         <v>496100</v>
       </c>
-      <c r="F185" s="22">
+      <c r="F185" s="21">
         <v>437100</v>
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="21">
+      <c r="A186" s="20">
         <v>43952</v>
       </c>
-      <c r="B186" s="22">
+      <c r="B186" s="21">
         <v>544200</v>
       </c>
-      <c r="C186" s="22">
+      <c r="C186" s="21">
         <v>443900</v>
       </c>
-      <c r="D186" s="22">
+      <c r="D186" s="21">
         <v>688000</v>
       </c>
-      <c r="E186" s="22">
+      <c r="E186" s="21">
         <v>496400</v>
       </c>
-      <c r="F186" s="22">
+      <c r="F186" s="21">
         <v>436100</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="21">
+      <c r="A187" s="20">
         <v>43983</v>
       </c>
-      <c r="B187" s="22">
+      <c r="B187" s="21">
         <v>553600</v>
       </c>
-      <c r="C187" s="22">
+      <c r="C187" s="21">
         <v>454200</v>
       </c>
-      <c r="D187" s="22">
+      <c r="D187" s="21">
         <v>701500</v>
       </c>
-      <c r="E187" s="22">
+      <c r="E187" s="21">
         <v>503000</v>
       </c>
-      <c r="F187" s="22">
+      <c r="F187" s="21">
         <v>435800</v>
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="21">
+      <c r="A188" s="20">
         <v>44013</v>
       </c>
-      <c r="B188" s="23">
+      <c r="B188" s="22">
         <v>567900</v>
       </c>
-      <c r="C188" s="23">
+      <c r="C188" s="22">
         <v>467800</v>
       </c>
-      <c r="D188" s="23">
+      <c r="D188" s="22">
         <v>720500</v>
       </c>
-      <c r="E188" s="23">
+      <c r="E188" s="22">
         <v>514200</v>
       </c>
-      <c r="F188" s="23">
+      <c r="F188" s="22">
         <v>440600</v>
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="21">
+      <c r="A189" s="20">
         <v>44044</v>
       </c>
-      <c r="B189" s="23">
+      <c r="B189" s="22">
         <v>581200</v>
       </c>
-      <c r="C189" s="23">
+      <c r="C189" s="22">
         <v>480000</v>
       </c>
-      <c r="D189" s="23">
+      <c r="D189" s="22">
         <v>739500</v>
       </c>
-      <c r="E189" s="23">
+      <c r="E189" s="22">
         <v>524400</v>
       </c>
-      <c r="F189" s="23">
+      <c r="F189" s="22">
         <v>444900</v>
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="21">
+      <c r="A190" s="20">
         <v>44075</v>
       </c>
-      <c r="B190" s="23">
+      <c r="B190" s="22">
         <v>590600</v>
       </c>
-      <c r="C190" s="23">
+      <c r="C190" s="22">
         <v>491200</v>
       </c>
-      <c r="D190" s="23">
+      <c r="D190" s="22">
         <v>751400</v>
       </c>
-      <c r="E190" s="23">
+      <c r="E190" s="22">
         <v>532700</v>
       </c>
-      <c r="F190" s="23">
+      <c r="F190" s="22">
         <v>447300</v>
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="21">
+      <c r="A191" s="20">
         <v>44105</v>
       </c>
-      <c r="B191" s="23">
+      <c r="B191" s="22">
         <v>597000</v>
       </c>
-      <c r="C191" s="23">
+      <c r="C191" s="22">
         <v>498400</v>
       </c>
-      <c r="D191" s="23">
+      <c r="D191" s="22">
         <v>759200</v>
       </c>
-      <c r="E191" s="23">
+      <c r="E191" s="22">
         <v>538500</v>
       </c>
-      <c r="F191" s="23">
+      <c r="F191" s="22">
         <v>447700</v>
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="21">
+      <c r="A192" s="20">
         <v>44136</v>
       </c>
-      <c r="B192" s="23">
+      <c r="B192" s="22">
         <v>603700</v>
       </c>
-      <c r="C192" s="23">
+      <c r="C192" s="22">
         <v>506800</v>
       </c>
-      <c r="D192" s="23">
+      <c r="D192" s="22">
         <v>769600</v>
       </c>
-      <c r="E192" s="23">
+      <c r="E192" s="22">
         <v>543400</v>
       </c>
-      <c r="F192" s="23">
+      <c r="F192" s="22">
         <v>447700</v>
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="21">
+      <c r="A193" s="20">
         <v>44166</v>
       </c>
-      <c r="B193" s="23">
+      <c r="B193" s="22">
         <v>611100</v>
       </c>
-      <c r="C193" s="23">
+      <c r="C193" s="22">
         <v>514800</v>
       </c>
-      <c r="D193" s="23">
+      <c r="D193" s="22">
         <v>779100</v>
       </c>
-      <c r="E193" s="23">
+      <c r="E193" s="22">
         <v>550000</v>
       </c>
-      <c r="F193" s="23">
+      <c r="F193" s="22">
         <v>449600</v>
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="21">
+      <c r="A194" s="20">
         <v>44197</v>
       </c>
-      <c r="B194" s="23">
+      <c r="B194" s="22">
         <v>623500</v>
       </c>
-      <c r="C194" s="23">
+      <c r="C194" s="22">
         <v>524800</v>
       </c>
-      <c r="D194" s="23">
+      <c r="D194" s="22">
         <v>796700</v>
       </c>
-      <c r="E194" s="23">
+      <c r="E194" s="22">
         <v>557300</v>
       </c>
-      <c r="F194" s="23">
+      <c r="F194" s="22">
         <v>450500</v>
       </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="21">
+      <c r="A195" s="20">
         <v>44228</v>
       </c>
-      <c r="B195" s="23">
+      <c r="B195" s="22">
         <v>638900</v>
       </c>
-      <c r="C195" s="23">
+      <c r="C195" s="22">
         <v>540000</v>
       </c>
-      <c r="D195" s="23">
+      <c r="D195" s="22">
         <v>816500</v>
       </c>
-      <c r="E195" s="23">
+      <c r="E195" s="22">
         <v>570600</v>
       </c>
-      <c r="F195" s="23">
+      <c r="F195" s="22">
         <v>454300</v>
       </c>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="21">
+      <c r="A196" s="20">
         <v>44256</v>
       </c>
-      <c r="B196" s="23">
+      <c r="B196" s="22">
         <v>655100</v>
       </c>
-      <c r="C196" s="23">
+      <c r="C196" s="22">
         <v>555200</v>
       </c>
-      <c r="D196" s="23">
+      <c r="D196" s="22">
         <v>837100</v>
       </c>
-      <c r="E196" s="23">
+      <c r="E196" s="22">
         <v>585000</v>
       </c>
-      <c r="F196" s="23">
+      <c r="F196" s="22">
         <v>461900</v>
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="21">
+      <c r="A197" s="20">
         <v>44287</v>
       </c>
-      <c r="B197" s="23">
+      <c r="B197" s="22">
         <v>668300</v>
       </c>
-      <c r="C197" s="23">
+      <c r="C197" s="22">
         <v>569000</v>
       </c>
-      <c r="D197" s="23">
+      <c r="D197" s="22">
         <v>854100</v>
       </c>
-      <c r="E197" s="23">
+      <c r="E197" s="22">
         <v>598100</v>
       </c>
-      <c r="F197" s="23">
+      <c r="F197" s="22">
         <v>471300</v>
       </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="21">
+      <c r="A198" s="20">
         <v>44317</v>
       </c>
-      <c r="B198" s="23">
+      <c r="B198" s="22">
         <v>680900</v>
       </c>
-      <c r="C198" s="23">
+      <c r="C198" s="22">
         <v>582100</v>
       </c>
-      <c r="D198" s="23">
+      <c r="D198" s="22">
         <v>872000</v>
       </c>
-      <c r="E198" s="23">
+      <c r="E198" s="22">
         <v>610500</v>
       </c>
-      <c r="F198" s="23">
+      <c r="F198" s="22">
         <v>478200</v>
       </c>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="21">
+      <c r="A199" s="20">
         <v>44348</v>
       </c>
-      <c r="B199" s="23">
+      <c r="B199" s="22">
         <v>693600</v>
       </c>
-      <c r="C199" s="23">
+      <c r="C199" s="22">
         <v>592300</v>
       </c>
-      <c r="D199" s="23">
+      <c r="D199" s="22">
         <v>889300</v>
       </c>
-      <c r="E199" s="23">
+      <c r="E199" s="22">
         <v>621700</v>
       </c>
-      <c r="F199" s="23">
+      <c r="F199" s="22">
         <v>485000</v>
       </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="21">
+      <c r="A200" s="20">
         <v>44378</v>
       </c>
-      <c r="B200" s="23">
+      <c r="B200" s="22">
         <v>703200</v>
       </c>
-      <c r="C200" s="23">
+      <c r="C200" s="22">
         <v>600200</v>
       </c>
-      <c r="D200" s="23">
+      <c r="D200" s="22">
         <v>903400</v>
       </c>
-      <c r="E200" s="23">
+      <c r="E200" s="22">
         <v>629100</v>
       </c>
-      <c r="F200" s="23">
+      <c r="F200" s="22">
         <v>489800</v>
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="21">
+      <c r="A201" s="20">
         <v>44409</v>
       </c>
-      <c r="B201" s="23">
+      <c r="B201" s="22">
         <v>714500</v>
       </c>
-      <c r="C201" s="23">
+      <c r="C201" s="22">
         <v>610600</v>
       </c>
-      <c r="D201" s="23">
+      <c r="D201" s="22">
         <v>918600</v>
       </c>
-      <c r="E201" s="23">
+      <c r="E201" s="22">
         <v>639800</v>
       </c>
-      <c r="F201" s="23">
+      <c r="F201" s="22">
         <v>495800</v>
       </c>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="21">
+      <c r="A202" s="20">
         <v>44440</v>
       </c>
-      <c r="B202" s="23">
+      <c r="B202" s="22">
         <v>729700</v>
       </c>
-      <c r="C202" s="23">
+      <c r="C202" s="22">
         <v>621500</v>
       </c>
-      <c r="D202" s="23">
+      <c r="D202" s="22">
         <v>941200</v>
       </c>
-      <c r="E202" s="23">
+      <c r="E202" s="22">
         <v>653400</v>
       </c>
-      <c r="F202" s="23">
+      <c r="F202" s="22">
         <v>506500</v>
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="21">
+      <c r="A203" s="20">
         <v>44470</v>
       </c>
-      <c r="B203" s="23">
+      <c r="B203" s="22">
         <v>750300</v>
       </c>
-      <c r="C203" s="23">
+      <c r="C203" s="22">
         <v>636100</v>
       </c>
-      <c r="D203" s="23">
+      <c r="D203" s="22">
         <v>970300</v>
       </c>
-      <c r="E203" s="23">
+      <c r="E203" s="22">
         <v>668800</v>
       </c>
-      <c r="F203" s="23">
+      <c r="F203" s="22">
         <v>519300</v>
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="21">
+      <c r="A204" s="20">
         <v>44501</v>
       </c>
-      <c r="B204" s="23">
+      <c r="B204" s="22">
         <v>767700</v>
       </c>
-      <c r="C204" s="23">
+      <c r="C204" s="22">
         <v>650000</v>
       </c>
-      <c r="D204" s="23">
+      <c r="D204" s="22">
         <v>996000</v>
       </c>
-      <c r="E204" s="23">
+      <c r="E204" s="22">
         <v>688400</v>
       </c>
-      <c r="F204" s="23">
+      <c r="F204" s="22">
         <v>530700</v>
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="21">
+      <c r="A205" s="20">
         <v>44531</v>
       </c>
-      <c r="B205" s="23">
+      <c r="B205" s="22">
         <v>782400</v>
       </c>
-      <c r="C205" s="23">
+      <c r="C205" s="22">
         <v>665200</v>
       </c>
-      <c r="D205" s="23">
+      <c r="D205" s="22">
         <v>1013500</v>
       </c>
-      <c r="E205" s="23">
+      <c r="E205" s="22">
         <v>701800</v>
       </c>
-      <c r="F205" s="23">
+      <c r="F205" s="22">
         <v>539100</v>
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="21">
+      <c r="A206" s="20">
         <v>44562</v>
       </c>
-      <c r="B206" s="23">
+      <c r="B206" s="22">
         <v>814400</v>
       </c>
-      <c r="C206" s="23">
+      <c r="C206" s="22">
         <v>693100</v>
       </c>
-      <c r="D206" s="23">
+      <c r="D206" s="22">
         <v>1050000</v>
       </c>
-      <c r="E206" s="23">
+      <c r="E206" s="22">
         <v>729700</v>
       </c>
-      <c r="F206" s="23">
+      <c r="F206" s="22">
         <v>554400</v>
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="21">
+      <c r="A207" s="20">
         <v>44593</v>
       </c>
-      <c r="B207" s="23">
+      <c r="B207" s="22">
         <v>836200</v>
       </c>
-      <c r="C207" s="23">
+      <c r="C207" s="22">
         <v>710400</v>
       </c>
-      <c r="D207" s="23">
+      <c r="D207" s="22">
         <v>1075600</v>
       </c>
-      <c r="E207" s="23">
+      <c r="E207" s="22">
         <v>750800</v>
       </c>
-      <c r="F207" s="23">
+      <c r="F207" s="22">
         <v>569500</v>
       </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="21">
+      <c r="A208" s="20">
         <v>44621</v>
       </c>
-      <c r="B208" s="23">
+      <c r="B208" s="22">
         <v>835600</v>
       </c>
-      <c r="C208" s="23">
+      <c r="C208" s="22">
         <v>706800</v>
       </c>
-      <c r="D208" s="23">
+      <c r="D208" s="22">
         <v>1070400</v>
       </c>
-      <c r="E208" s="23">
+      <c r="E208" s="22">
         <v>757500</v>
       </c>
-      <c r="F208" s="23">
+      <c r="F208" s="22">
         <v>580900</v>
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="21">
+      <c r="A209" s="20">
         <v>44652</v>
       </c>
-      <c r="B209" s="23">
+      <c r="B209" s="22">
         <v>823000</v>
       </c>
-      <c r="C209" s="23">
+      <c r="C209" s="22">
         <v>697100</v>
       </c>
-      <c r="D209" s="23">
+      <c r="D209" s="22">
         <v>1055300</v>
       </c>
-      <c r="E209" s="23">
+      <c r="E209" s="22">
         <v>752000</v>
       </c>
-      <c r="F209" s="23">
+      <c r="F209" s="22">
         <v>579200</v>
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="21">
+      <c r="A210" s="20">
         <v>44682</v>
       </c>
-      <c r="B210" s="23">
+      <c r="B210" s="22">
         <v>813300</v>
       </c>
-      <c r="C210" s="23">
+      <c r="C210" s="22">
         <v>689300</v>
       </c>
-      <c r="D210" s="23">
+      <c r="D210" s="22">
         <v>1045600</v>
       </c>
-      <c r="E210" s="23">
+      <c r="E210" s="22">
         <v>744600</v>
       </c>
-      <c r="F210" s="23">
+      <c r="F210" s="22">
         <v>579000</v>
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="21">
+      <c r="A211" s="20">
         <v>44713</v>
       </c>
-      <c r="B211" s="23">
+      <c r="B211" s="22">
         <v>797000</v>
       </c>
-      <c r="C211" s="23">
+      <c r="C211" s="22">
         <v>669900</v>
       </c>
-      <c r="D211" s="23">
+      <c r="D211" s="22">
         <v>1025000</v>
       </c>
-      <c r="E211" s="23">
+      <c r="E211" s="22">
         <v>732500</v>
       </c>
-      <c r="F211" s="23">
+      <c r="F211" s="22">
         <v>572800</v>
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="21">
+      <c r="A212" s="20">
         <v>44743</v>
       </c>
-      <c r="B212" s="23">
+      <c r="B212" s="22">
         <v>781900</v>
       </c>
-      <c r="C212" s="23">
+      <c r="C212" s="22">
         <v>655500</v>
       </c>
-      <c r="D212" s="23">
+      <c r="D212" s="22">
         <v>1003300</v>
       </c>
-      <c r="E212" s="23">
+      <c r="E212" s="22">
         <v>722600</v>
       </c>
-      <c r="F212" s="23">
+      <c r="F212" s="22">
         <v>568700</v>
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="21">
+      <c r="A213" s="20">
         <v>44774</v>
       </c>
-      <c r="B213" s="23">
+      <c r="B213" s="22">
         <v>768100</v>
       </c>
-      <c r="C213" s="23">
+      <c r="C213" s="22">
         <v>642600</v>
       </c>
-      <c r="D213" s="23">
+      <c r="D213" s="22">
         <v>985300</v>
       </c>
-      <c r="E213" s="23">
+      <c r="E213" s="22">
         <v>708500</v>
       </c>
-      <c r="F213" s="23">
+      <c r="F213" s="22">
         <v>562200</v>
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="21">
+      <c r="A214" s="20">
         <v>44805</v>
       </c>
-      <c r="B214" s="23">
+      <c r="B214" s="22">
         <v>756700</v>
       </c>
-      <c r="C214" s="23">
+      <c r="C214" s="22">
         <v>632200</v>
       </c>
-      <c r="D214" s="23">
+      <c r="D214" s="22">
         <v>971500</v>
       </c>
-      <c r="E214" s="23">
+      <c r="E214" s="22">
         <v>699500</v>
       </c>
-      <c r="F214" s="23">
+      <c r="F214" s="22">
         <v>554400</v>
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="21">
+      <c r="A215" s="20">
         <v>44835</v>
       </c>
-      <c r="B215" s="23">
+      <c r="B215" s="22">
         <v>746600</v>
       </c>
-      <c r="C215" s="23">
+      <c r="C215" s="22">
         <v>624600</v>
       </c>
-      <c r="D215" s="23">
+      <c r="D215" s="22">
         <v>954900</v>
       </c>
-      <c r="E215" s="23">
+      <c r="E215" s="22">
         <v>692600</v>
       </c>
-      <c r="F215" s="23">
+      <c r="F215" s="22">
         <v>549500</v>
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" s="21">
+      <c r="A216" s="20">
         <v>44866</v>
       </c>
-      <c r="B216" s="23">
+      <c r="B216" s="22">
         <v>735300</v>
       </c>
-      <c r="C216" s="23">
+      <c r="C216" s="22">
         <v>615400</v>
       </c>
-      <c r="D216" s="23">
+      <c r="D216" s="22">
         <v>940300</v>
       </c>
-      <c r="E216" s="23">
+      <c r="E216" s="22">
         <v>683200</v>
       </c>
-      <c r="F216" s="23">
+      <c r="F216" s="22">
         <v>545200</v>
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="21">
+      <c r="A217" s="20">
         <v>44896</v>
       </c>
-      <c r="B217" s="23">
+      <c r="B217" s="22">
         <v>724000</v>
       </c>
-      <c r="C217" s="23">
+      <c r="C217" s="22">
         <v>605400</v>
       </c>
-      <c r="D217" s="23">
+      <c r="D217" s="22">
         <v>923600</v>
       </c>
-      <c r="E217" s="23">
+      <c r="E217" s="22">
         <v>671700</v>
       </c>
-      <c r="F217" s="23">
+      <c r="F217" s="22">
         <v>539200</v>
       </c>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="21">
+      <c r="A218" s="20">
         <v>44927</v>
       </c>
-      <c r="B218" s="23">
+      <c r="B218" s="22">
         <v>712000</v>
       </c>
-      <c r="C218" s="23">
+      <c r="C218" s="22">
         <v>593900</v>
       </c>
-      <c r="D218" s="23">
+      <c r="D218" s="22">
         <v>898900</v>
       </c>
-      <c r="E218" s="23">
+      <c r="E218" s="22">
         <v>661900</v>
       </c>
-      <c r="F218" s="23">
+      <c r="F218" s="22">
         <v>532900</v>
       </c>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="21">
+      <c r="A219" s="20">
         <v>44958</v>
       </c>
-      <c r="B219" s="23">
+      <c r="B219" s="22">
         <v>704300</v>
       </c>
-      <c r="C219" s="23">
+      <c r="C219" s="22">
         <v>588700</v>
       </c>
-      <c r="D219" s="23">
+      <c r="D219" s="22">
         <v>887600</v>
       </c>
-      <c r="E219" s="23">
+      <c r="E219" s="22">
         <v>652200</v>
       </c>
-      <c r="F219" s="23">
+      <c r="F219" s="22">
         <v>524700</v>
       </c>
     </row>
@@ -17969,7 +17971,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B195" sqref="A1:B195"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14"/>
@@ -17987,7 +17989,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>28</v>
@@ -20137,11 +20139,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:D207"/>
+  <dimension ref="A1:G207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14"/>
@@ -20151,1662 +20153,1662 @@
     <col min="3" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="21">
+        <v>32</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="20">
         <v>38718</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="23">
         <v>14.2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="21">
+    <row r="3" spans="1:2">
+      <c r="A3" s="20">
         <v>38749</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="23">
         <v>14.891518738</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="21">
+    <row r="4" spans="1:2">
+      <c r="A4" s="20">
         <v>38777</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>15.661478599000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="21">
+    <row r="5" spans="1:2">
+      <c r="A5" s="20">
         <v>38808</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <v>16.475095785000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="21">
+    <row r="6" spans="1:2">
+      <c r="A6" s="20">
         <v>38838</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>17.424242423999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="21">
+    <row r="7" spans="1:2">
+      <c r="A7" s="20">
         <v>38869</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <v>17.867165575000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="21">
+    <row r="8" spans="1:2">
+      <c r="A8" s="20">
         <v>38899</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <v>17.979610750999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="21">
+    <row r="9" spans="1:2">
+      <c r="A9" s="20">
         <v>38930</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>18.089990817</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="21">
+    <row r="10" spans="1:2">
+      <c r="A10" s="20">
         <v>38961</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <v>17.876588022</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="21">
+    <row r="11" spans="1:2">
+      <c r="A11" s="20">
         <v>38991</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <v>17.493237150999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="21">
+    <row r="12" spans="1:2">
+      <c r="A12" s="20">
         <v>39022</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="23">
         <v>16.741271262000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="21">
+    <row r="13" spans="1:2">
+      <c r="A13" s="20">
         <v>39052</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <v>16.592328278</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="21">
+    <row r="14" spans="1:2">
+      <c r="A14" s="20">
         <v>39083</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <v>16.112084063000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="21">
+    <row r="15" spans="1:2">
+      <c r="A15" s="20">
         <v>39114</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="23">
         <v>16.051502146000001</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="21">
+    <row r="16" spans="1:2">
+      <c r="A16" s="20">
         <v>39142</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="23">
         <v>15.811606392</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="21">
+      <c r="A17" s="20">
         <v>39173</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="23">
         <v>15.296052632</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
         <v>39203</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="23">
         <v>15.161290322999999</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="21">
+      <c r="A19" s="20">
         <v>39234</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="23">
         <v>14.920634921</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="21">
+      <c r="A20" s="20">
         <v>39264</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>14.532600156999999</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="21">
+      <c r="A21" s="20">
         <v>39295</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="23">
         <v>14.074650077999999</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="21">
+      <c r="A22" s="20">
         <v>39326</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="23">
         <v>13.625866050999999</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="21">
+      <c r="A23" s="20">
         <v>39356</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="23">
         <v>13.507290867</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="21">
+      <c r="A24" s="20">
         <v>39387</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="23">
         <v>13.420245399000001</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="21">
+      <c r="A25" s="20">
         <v>39417</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="23">
         <v>13.083397093</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="21">
+      <c r="A26" s="20">
         <v>39448</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="23">
         <v>12.443438914</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="21">
+      <c r="A27" s="20">
         <v>39479</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="23">
         <v>11.094674555999999</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="21">
+      <c r="A28" s="20">
         <v>39508</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="23">
         <v>9.7312999274000003</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="21">
+      <c r="A29" s="20">
         <v>39539</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="23">
         <v>8.0599144079999991</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="21">
+      <c r="A30" s="20">
         <v>39569</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="23">
         <v>6.0224089636000002</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="21">
+      <c r="A31" s="20">
         <v>39600</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="23">
         <v>4.1436464087999996</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="21">
+      <c r="A32" s="20">
         <v>39630</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="23">
         <v>2.4005486968</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="21">
+      <c r="A33" s="20">
         <v>39661</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="23">
         <v>0.95432856170000002</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="21">
+      <c r="A34" s="20">
         <v>39692</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="23">
         <v>-0.47425474299999998</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="21">
+      <c r="A35" s="20">
         <v>39722</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="23">
         <v>-2.4340770790000001</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="21">
+      <c r="A36" s="20">
         <v>39753</v>
       </c>
-      <c r="B36" s="24">
+      <c r="B36" s="23">
         <v>-4.0567951320000004</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="21">
+      <c r="A37" s="20">
         <v>39783</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B37" s="23">
         <v>-5.9539918810000003</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="21">
+      <c r="A38" s="20">
         <v>39814</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="23">
         <v>-7.5117370890000004</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="21">
+      <c r="A39" s="20">
         <v>39845</v>
       </c>
-      <c r="B39" s="24">
+      <c r="B39" s="23">
         <v>-8.4553928099999993</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="21">
+      <c r="A40" s="20">
         <v>39873</v>
       </c>
-      <c r="B40" s="24">
+      <c r="B40" s="23">
         <v>-9.0668431500000004</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="21">
+      <c r="A41" s="20">
         <v>39904</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B41" s="23">
         <v>-8.382838284</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="21">
+      <c r="A42" s="20">
         <v>39934</v>
       </c>
-      <c r="B42" s="24">
+      <c r="B42" s="23">
         <v>-7.1994715979999997</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="21">
+      <c r="A43" s="20">
         <v>39965</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="23">
         <v>-5.5702917769999996</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="21">
+      <c r="A44" s="20">
         <v>39995</v>
       </c>
-      <c r="B44" s="24">
+      <c r="B44" s="23">
         <v>-3.5498995309999999</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="21">
+      <c r="A45" s="20">
         <v>40026</v>
       </c>
-      <c r="B45" s="24">
+      <c r="B45" s="23">
         <v>-1.553004727</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="21">
+      <c r="A46" s="20">
         <v>40057</v>
       </c>
-      <c r="B46" s="24">
+      <c r="B46" s="23">
         <v>0.40844111640000003</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="21">
+      <c r="A47" s="20">
         <v>40087</v>
       </c>
-      <c r="B47" s="24">
+      <c r="B47" s="23">
         <v>3.2571032570999998</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="21">
+      <c r="A48" s="20">
         <v>40118</v>
       </c>
-      <c r="B48" s="24">
+      <c r="B48" s="23">
         <v>5.8491895701000001</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="21">
+      <c r="A49" s="20">
         <v>40148</v>
       </c>
-      <c r="B49" s="24">
+      <c r="B49" s="23">
         <v>8.4172661870999992</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="21">
+      <c r="A50" s="20">
         <v>40179</v>
       </c>
-      <c r="B50" s="24">
+      <c r="B50" s="23">
         <v>10.514865844999999</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="21">
+      <c r="A51" s="20">
         <v>40210</v>
       </c>
-      <c r="B51" s="24">
+      <c r="B51" s="23">
         <v>12.363636364</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="21">
+      <c r="A52" s="20">
         <v>40238</v>
       </c>
-      <c r="B52" s="24">
+      <c r="B52" s="23">
         <v>13.682678311</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="21">
+      <c r="A53" s="20">
         <v>40269</v>
       </c>
-      <c r="B53" s="24">
+      <c r="B53" s="23">
         <v>13.328530259000001</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="21">
+      <c r="A54" s="20">
         <v>40299</v>
       </c>
-      <c r="B54" s="24">
+      <c r="B54" s="23">
         <v>12.31316726</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="21">
+      <c r="A55" s="20">
         <v>40330</v>
       </c>
-      <c r="B55" s="24">
+      <c r="B55" s="23">
         <v>10.393258426999999</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="21">
+      <c r="A56" s="20">
         <v>40360</v>
       </c>
-      <c r="B56" s="24">
+      <c r="B56" s="23">
         <v>8.5416666666999994</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="21">
+      <c r="A57" s="20">
         <v>40391</v>
       </c>
-      <c r="B57" s="24">
+      <c r="B57" s="23">
         <v>6.7901234568</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="21">
+      <c r="A58" s="20">
         <v>40422</v>
       </c>
-      <c r="B58" s="24">
+      <c r="B58" s="23">
         <v>5.2881355931999998</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="21">
+      <c r="A59" s="20">
         <v>40452</v>
       </c>
-      <c r="B59" s="24">
+      <c r="B59" s="23">
         <v>4.1610738254999999</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="21">
+      <c r="A60" s="20">
         <v>40483</v>
       </c>
-      <c r="B60" s="24">
+      <c r="B60" s="23">
         <v>3.3288948069000002</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="21">
+      <c r="A61" s="20">
         <v>40513</v>
       </c>
-      <c r="B61" s="24">
+      <c r="B61" s="23">
         <v>2.7869940279000001</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="21">
+      <c r="A62" s="20">
         <v>40544</v>
       </c>
-      <c r="B62" s="24">
+      <c r="B62" s="23">
         <v>2.7559055118</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="21">
+      <c r="A63" s="20">
         <v>40575</v>
       </c>
-      <c r="B63" s="24">
+      <c r="B63" s="23">
         <v>2.9773462783000002</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="21">
+      <c r="A64" s="20">
         <v>40603</v>
       </c>
-      <c r="B64" s="24">
+      <c r="B64" s="23">
         <v>3.3290653009</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="21">
+      <c r="A65" s="20">
         <v>40634</v>
       </c>
-      <c r="B65" s="24">
+      <c r="B65" s="23">
         <v>3.8143674506999998</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="21">
+      <c r="A66" s="20">
         <v>40664</v>
       </c>
-      <c r="B66" s="24">
+      <c r="B66" s="23">
         <v>4.6261089987000004</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="21">
+      <c r="A67" s="20">
         <v>40695</v>
       </c>
-      <c r="B67" s="24">
+      <c r="B67" s="23">
         <v>5.6615776081</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="21">
+      <c r="A68" s="20">
         <v>40725</v>
       </c>
-      <c r="B68" s="24">
+      <c r="B68" s="23">
         <v>6.6538707614000003</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="21">
+      <c r="A69" s="20">
         <v>40756</v>
       </c>
-      <c r="B69" s="24">
+      <c r="B69" s="23">
         <v>7.4502247913000001</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="21">
+      <c r="A70" s="20">
         <v>40787</v>
       </c>
-      <c r="B70" s="24">
+      <c r="B70" s="23">
         <v>7.8557630393000002</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="21">
+      <c r="A71" s="20">
         <v>40817</v>
       </c>
-      <c r="B71" s="24">
+      <c r="B71" s="23">
         <v>7.9896907215999997</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="21">
+      <c r="A72" s="20">
         <v>40848</v>
       </c>
-      <c r="B72" s="24">
+      <c r="B72" s="23">
         <v>7.9896907215999997</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="21">
+      <c r="A73" s="20">
         <v>40878</v>
       </c>
-      <c r="B73" s="24">
+      <c r="B73" s="23">
         <v>8.1988379600000005</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="21">
+      <c r="A74" s="20">
         <v>40909</v>
       </c>
-      <c r="B74" s="24">
+      <c r="B74" s="23">
         <v>7.9182630907</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="21">
+      <c r="A75" s="20">
         <v>40940</v>
       </c>
-      <c r="B75" s="24">
+      <c r="B75" s="23">
         <v>7.5424261470999996</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="21">
+      <c r="A76" s="20">
         <v>40969</v>
       </c>
-      <c r="B76" s="24">
+      <c r="B76" s="23">
         <v>7.0631970260000001</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="21">
+      <c r="A77" s="20">
         <v>41000</v>
       </c>
-      <c r="B77" s="24">
+      <c r="B77" s="23">
         <v>6.7973055726</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="21">
+      <c r="A78" s="20">
         <v>41030</v>
       </c>
-      <c r="B78" s="24">
+      <c r="B78" s="23">
         <v>5.9357964870000002</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="21">
+      <c r="A79" s="20">
         <v>41061</v>
       </c>
-      <c r="B79" s="24">
+      <c r="B79" s="23">
         <v>4.9969897652000004</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="21">
+      <c r="A80" s="20">
         <v>41091</v>
       </c>
-      <c r="B80" s="24">
+      <c r="B80" s="23">
         <v>4.1391721655999998</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="21">
+      <c r="A81" s="20">
         <v>41122</v>
       </c>
-      <c r="B81" s="24">
+      <c r="B81" s="23">
         <v>3.2875074716000001</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="21">
+      <c r="A82" s="20">
         <v>41153</v>
       </c>
-      <c r="B82" s="24">
+      <c r="B82" s="23">
         <v>2.7462686566999999</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="21">
+      <c r="A83" s="20">
         <v>41183</v>
       </c>
-      <c r="B83" s="24">
+      <c r="B83" s="23">
         <v>2.2076372315000001</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="21">
+      <c r="A84" s="20">
         <v>41214</v>
       </c>
-      <c r="B84" s="24">
+      <c r="B84" s="23">
         <v>1.5513126492</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="21">
+      <c r="A85" s="20">
         <v>41244</v>
       </c>
-      <c r="B85" s="24">
+      <c r="B85" s="23">
         <v>1.4319809069</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="21">
+      <c r="A86" s="20">
         <v>41275</v>
       </c>
-      <c r="B86" s="24">
+      <c r="B86" s="23">
         <v>0.7692307692</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="21">
+      <c r="A87" s="20">
         <v>41306</v>
       </c>
-      <c r="B87" s="24">
+      <c r="B87" s="23">
         <v>0.75978959670000001</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="21">
+      <c r="A88" s="20">
         <v>41334</v>
       </c>
-      <c r="B88" s="24">
+      <c r="B88" s="23">
         <v>0.57870370370000002</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="21">
+      <c r="A89" s="20">
         <v>41365</v>
       </c>
-      <c r="B89" s="24">
+      <c r="B89" s="23">
         <v>0.45871559629999997</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="21">
+      <c r="A90" s="20">
         <v>41395</v>
       </c>
-      <c r="B90" s="24">
+      <c r="B90" s="23">
         <v>0.57175528870000003</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="21">
+      <c r="A91" s="20">
         <v>41426</v>
       </c>
-      <c r="B91" s="24">
+      <c r="B91" s="23">
         <v>1.1467889908</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="21">
+      <c r="A92" s="20">
         <v>41456</v>
       </c>
-      <c r="B92" s="24">
+      <c r="B92" s="23">
         <v>1.7281105991000001</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="21">
+      <c r="A93" s="20">
         <v>41487</v>
       </c>
-      <c r="B93" s="24">
+      <c r="B93" s="23">
         <v>2.3148148148000001</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="21">
+      <c r="A94" s="20">
         <v>41518</v>
       </c>
-      <c r="B94" s="24">
+      <c r="B94" s="23">
         <v>3.0214991283999999</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="21">
+      <c r="A95" s="20">
         <v>41548</v>
       </c>
-      <c r="B95" s="24">
+      <c r="B95" s="23">
         <v>3.6193812026000001</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="21">
+      <c r="A96" s="20">
         <v>41579</v>
       </c>
-      <c r="B96" s="24">
+      <c r="B96" s="23">
         <v>4.2890716804000002</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="21">
+      <c r="A97" s="20">
         <v>41609</v>
       </c>
-      <c r="B97" s="24">
+      <c r="B97" s="23">
         <v>4.2941176471000002</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="21">
+      <c r="A98" s="20">
         <v>41640</v>
       </c>
-      <c r="B98" s="24">
+      <c r="B98" s="23">
         <v>4.9911920141000001</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="21">
+      <c r="A99" s="20">
         <v>41671</v>
       </c>
-      <c r="B99" s="24">
+      <c r="B99" s="23">
         <v>5.0464037123000001</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="21">
+      <c r="A100" s="20">
         <v>41699</v>
       </c>
-      <c r="B100" s="24">
+      <c r="B100" s="23">
         <v>5.1208285385999996</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="21">
+      <c r="A101" s="20">
         <v>41730</v>
       </c>
-      <c r="B101" s="24">
+      <c r="B101" s="23">
         <v>5.1940639269000002</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="21">
+      <c r="A102" s="20">
         <v>41760</v>
       </c>
-      <c r="B102" s="24">
+      <c r="B102" s="23">
         <v>5.4007959068</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="21">
+      <c r="A103" s="20">
         <v>41791</v>
       </c>
-      <c r="B103" s="24">
+      <c r="B103" s="23">
         <v>5.5555555555999998</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="21">
+      <c r="A104" s="20">
         <v>41821</v>
       </c>
-      <c r="B104" s="24">
+      <c r="B104" s="23">
         <v>5.3793884485000003</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="21">
+      <c r="A105" s="20">
         <v>41852</v>
       </c>
-      <c r="B105" s="24">
+      <c r="B105" s="23">
         <v>5.4298642533999999</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="21">
+      <c r="A106" s="20">
         <v>41883</v>
       </c>
-      <c r="B106" s="24">
+      <c r="B106" s="23">
         <v>5.4709531867000001</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="21">
+      <c r="A107" s="20">
         <v>41913</v>
       </c>
-      <c r="B107" s="24">
+      <c r="B107" s="23">
         <v>5.4647887323999997</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="21">
+      <c r="A108" s="20">
         <v>41944</v>
       </c>
-      <c r="B108" s="24">
+      <c r="B108" s="23">
         <v>5.6338028169000003</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="21">
+      <c r="A109" s="20">
         <v>41974</v>
       </c>
-      <c r="B109" s="24">
+      <c r="B109" s="23">
         <v>5.7529610828999997</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="21">
+      <c r="A110" s="20">
         <v>42005</v>
       </c>
-      <c r="B110" s="24">
+      <c r="B110" s="23">
         <v>5.7046979866000003</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="21">
+      <c r="A111" s="20">
         <v>42036</v>
       </c>
-      <c r="B111" s="24">
+      <c r="B111" s="23">
         <v>5.7979017117999998</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="21">
+      <c r="A112" s="20">
         <v>42064</v>
       </c>
-      <c r="B112" s="24">
+      <c r="B112" s="23">
         <v>6.4039408867000001</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="21">
+      <c r="A113" s="20">
         <v>42095</v>
       </c>
-      <c r="B113" s="24">
+      <c r="B113" s="23">
         <v>6.8909386869000002</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="21">
+      <c r="A114" s="20">
         <v>42125</v>
       </c>
-      <c r="B114" s="24">
+      <c r="B114" s="23">
         <v>7.3354908306000004</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="21">
+      <c r="A115" s="20">
         <v>42156</v>
       </c>
-      <c r="B115" s="24">
+      <c r="B115" s="23">
         <v>7.8947368421000004</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="21">
+      <c r="A116" s="20">
         <v>42186</v>
       </c>
-      <c r="B116" s="24">
+      <c r="B116" s="23">
         <v>8.4900591080000005</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="21">
+      <c r="A117" s="20">
         <v>42217</v>
       </c>
-      <c r="B117" s="24">
+      <c r="B117" s="23">
         <v>9.0128755364999993</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="21">
+      <c r="A118" s="20">
         <v>42248</v>
       </c>
-      <c r="B118" s="24">
+      <c r="B118" s="23">
         <v>9.4117647058999996</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="21">
+      <c r="A119" s="20">
         <v>42278</v>
       </c>
-      <c r="B119" s="24">
+      <c r="B119" s="23">
         <v>9.7222222221999992</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="21">
+      <c r="A120" s="20">
         <v>42309</v>
       </c>
-      <c r="B120" s="24">
+      <c r="B120" s="23">
         <v>10.026666667000001</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="21">
+      <c r="A121" s="20">
         <v>42339</v>
       </c>
-      <c r="B121" s="24">
+      <c r="B121" s="23">
         <v>10.4</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="21">
+      <c r="A122" s="20">
         <v>42370</v>
       </c>
-      <c r="B122" s="24">
+      <c r="B122" s="23">
         <v>11.428571429</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="21">
+      <c r="A123" s="20">
         <v>42401</v>
       </c>
-      <c r="B123" s="24">
+      <c r="B123" s="23">
         <v>12.839248434</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="21">
+      <c r="A124" s="20">
         <v>42430</v>
       </c>
-      <c r="B124" s="24">
+      <c r="B124" s="23">
         <v>13.888888889</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="21">
+      <c r="A125" s="20">
         <v>42461</v>
       </c>
-      <c r="B125" s="24">
+      <c r="B125" s="23">
         <v>15.126903553</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="21">
+      <c r="A126" s="20">
         <v>42491</v>
       </c>
-      <c r="B126" s="24">
+      <c r="B126" s="23">
         <v>16.482412060000001</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="21">
+      <c r="A127" s="20">
         <v>42522</v>
       </c>
-      <c r="B127" s="24">
+      <c r="B127" s="23">
         <v>17.172722748000002</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="21">
+      <c r="A128" s="20">
         <v>42552</v>
       </c>
-      <c r="B128" s="24">
+      <c r="B128" s="23">
         <v>17.582961862000001</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="21">
+      <c r="A129" s="20">
         <v>42583</v>
       </c>
-      <c r="B129" s="24">
+      <c r="B129" s="23">
         <v>17.224409448999999</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="21">
+      <c r="A130" s="20">
         <v>42614</v>
       </c>
-      <c r="B130" s="24">
+      <c r="B130" s="23">
         <v>17.057673509000001</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="21">
+      <c r="A131" s="20">
         <v>42644</v>
       </c>
-      <c r="B131" s="24">
+      <c r="B131" s="23">
         <v>16.504381693999999</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="21">
+      <c r="A132" s="20">
         <v>42675</v>
       </c>
-      <c r="B132" s="24">
+      <c r="B132" s="23">
         <v>16.141541444000001</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="21">
+      <c r="A133" s="20">
         <v>42705</v>
       </c>
-      <c r="B133" s="24">
+      <c r="B133" s="23">
         <v>15.797101448999999</v>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="21">
+      <c r="A134" s="20">
         <v>42736</v>
       </c>
-      <c r="B134" s="24">
+      <c r="B134" s="23">
         <v>16.144349477999999</v>
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="21">
+      <c r="A135" s="20">
         <v>42767</v>
       </c>
-      <c r="B135" s="24">
+      <c r="B135" s="23">
         <v>17.113783534</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="21">
+      <c r="A136" s="20">
         <v>42795</v>
       </c>
-      <c r="B136" s="24">
+      <c r="B136" s="23">
         <v>18.518518519000001</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="21">
+      <c r="A137" s="20">
         <v>42826</v>
       </c>
-      <c r="B137" s="24">
+      <c r="B137" s="23">
         <v>17.768959435999999</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="21">
+      <c r="A138" s="20">
         <v>42856</v>
       </c>
-      <c r="B138" s="24">
+      <c r="B138" s="23">
         <v>15.012942192000001</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="21">
+      <c r="A139" s="20">
         <v>42887</v>
       </c>
-      <c r="B139" s="24">
+      <c r="B139" s="23">
         <v>11.937128292000001</v>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="21">
+      <c r="A140" s="20">
         <v>42917</v>
       </c>
-      <c r="B140" s="24">
+      <c r="B140" s="23">
         <v>9.2249368154999996</v>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="21">
+      <c r="A141" s="20">
         <v>42948</v>
       </c>
-      <c r="B141" s="24">
+      <c r="B141" s="23">
         <v>7.6406381192000001</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="21">
+      <c r="A142" s="20">
         <v>42979</v>
       </c>
-      <c r="B142" s="24">
+      <c r="B142" s="23">
         <v>6.6388308977000001</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="21">
+      <c r="A143" s="20">
         <v>43009</v>
       </c>
-      <c r="B143" s="24">
+      <c r="B143" s="23">
         <v>6.4772252403000001</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="21">
+      <c r="A144" s="20">
         <v>43040</v>
       </c>
-      <c r="B144" s="24">
+      <c r="B144" s="23">
         <v>6.0934891485999998</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="21">
+      <c r="A145" s="20">
         <v>43070</v>
       </c>
-      <c r="B145" s="24">
+      <c r="B145" s="23">
         <v>5.7989153108</v>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="21">
+      <c r="A146" s="20">
         <v>43101</v>
       </c>
-      <c r="B146" s="24">
+      <c r="B146" s="23">
         <v>4.0474243662999996</v>
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="21">
+      <c r="A147" s="20">
         <v>43132</v>
       </c>
-      <c r="B147" s="24">
+      <c r="B147" s="23">
         <v>1.2638230648</v>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="21">
+      <c r="A148" s="20">
         <v>43160</v>
       </c>
-      <c r="B148" s="24">
+      <c r="B148" s="23">
         <v>-1.6006097560000001</v>
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="21">
+      <c r="A149" s="20">
         <v>43191</v>
       </c>
-      <c r="B149" s="24">
+      <c r="B149" s="23">
         <v>-3.2197678769999998</v>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="21">
+      <c r="A150" s="20">
         <v>43221</v>
       </c>
-      <c r="B150" s="24">
+      <c r="B150" s="23">
         <v>-3.2633158290000002</v>
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="21">
+      <c r="A151" s="20">
         <v>43252</v>
       </c>
-      <c r="B151" s="24">
+      <c r="B151" s="23">
         <v>-2.6565464900000002</v>
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="21">
+      <c r="A152" s="20">
         <v>43282</v>
       </c>
-      <c r="B152" s="24">
+      <c r="B152" s="23">
         <v>-1.7354415729999999</v>
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="21">
+      <c r="A153" s="20">
         <v>43313</v>
       </c>
-      <c r="B153" s="24">
+      <c r="B153" s="23">
         <v>-1.3260530420000001</v>
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="21">
+      <c r="A154" s="20">
         <v>43344</v>
       </c>
-      <c r="B154" s="24">
+      <c r="B154" s="23">
         <v>-1.5270164449999999</v>
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="21">
+      <c r="A155" s="20">
         <v>43374</v>
       </c>
-      <c r="B155" s="24">
+      <c r="B155" s="23">
         <v>-1.7660910519999999</v>
       </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="21">
+      <c r="A156" s="20">
         <v>43405</v>
       </c>
-      <c r="B156" s="24">
+      <c r="B156" s="23">
         <v>-2.557041699</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="21">
+      <c r="A157" s="20">
         <v>43435</v>
       </c>
-      <c r="B157" s="24">
+      <c r="B157" s="23">
         <v>-3.1940063090000002</v>
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="21">
+      <c r="A158" s="20">
         <v>43466</v>
       </c>
-      <c r="B158" s="24">
+      <c r="B158" s="23">
         <v>-3.8506876229999998</v>
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="21">
+      <c r="A159" s="20">
         <v>43497</v>
       </c>
-      <c r="B159" s="24">
+      <c r="B159" s="23">
         <v>-4.4071762870000004</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="21">
+      <c r="A160" s="20">
         <v>43525</v>
       </c>
-      <c r="B160" s="24">
+      <c r="B160" s="23">
         <v>-4.7250193649999996</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="21">
+    <row r="161" spans="1:7">
+      <c r="A161" s="20">
         <v>43556</v>
       </c>
-      <c r="B161" s="24">
+      <c r="B161" s="23">
         <v>-4.6034816249999997</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="21">
+    <row r="162" spans="1:7">
+      <c r="A162" s="20">
         <v>43586</v>
       </c>
-      <c r="B162" s="24">
+      <c r="B162" s="23">
         <v>-4.5366421089999998</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="21">
+    <row r="163" spans="1:7">
+      <c r="A163" s="20">
         <v>43617</v>
       </c>
-      <c r="B163" s="24">
+      <c r="B163" s="23">
         <v>-4.0935672509999996</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="21">
+    <row r="164" spans="1:7">
+      <c r="A164" s="20">
         <v>43647</v>
       </c>
-      <c r="B164" s="24">
+      <c r="B164" s="23">
         <v>-3.6499215070000002</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="21">
+    <row r="165" spans="1:7">
+      <c r="A165" s="20">
         <v>43678</v>
       </c>
-      <c r="B165" s="24">
+      <c r="B165" s="23">
         <v>-3.083003953</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="21">
+    <row r="166" spans="1:7">
+      <c r="A166" s="20">
         <v>43709</v>
       </c>
-      <c r="B166" s="24">
+      <c r="B166" s="23">
         <v>-2.3061630219999998</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="21">
+    <row r="167" spans="1:7">
+      <c r="A167" s="20">
         <v>43739</v>
       </c>
-      <c r="B167" s="24">
+      <c r="B167" s="23">
         <v>-1.598082301</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="21">
+    <row r="168" spans="1:7">
+      <c r="A168" s="20">
         <v>43770</v>
       </c>
-      <c r="B168" s="24">
+      <c r="B168" s="23">
         <v>-0.56519983900000004</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="21">
+    <row r="169" spans="1:7">
+      <c r="A169" s="20">
         <v>43800</v>
       </c>
-      <c r="B169" s="24">
+      <c r="B169" s="23">
         <v>0.48879837069999998</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="21">
+    <row r="170" spans="1:7">
+      <c r="A170" s="20">
         <v>43831</v>
       </c>
-      <c r="B170" s="24">
+      <c r="B170" s="23">
         <v>2.0433183490000002</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="21">
+    <row r="171" spans="1:7">
+      <c r="A171" s="20">
         <v>43862</v>
       </c>
-      <c r="B171" s="24">
+      <c r="B171" s="23">
         <v>3.9575683394999999</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="21">
+    <row r="172" spans="1:7">
+      <c r="A172" s="20">
         <v>43891</v>
       </c>
-      <c r="B172" s="24">
+      <c r="B172" s="23">
         <v>4.7560975609999998</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="21">
+    <row r="173" spans="1:7">
+      <c r="A173" s="20">
         <v>43922</v>
       </c>
-      <c r="B173" s="24">
+      <c r="B173" s="23">
         <v>3.2846715328</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="21">
+    <row r="174" spans="1:7">
+      <c r="A174" s="20">
         <v>43952</v>
       </c>
-      <c r="B174" s="24">
+      <c r="B174" s="23">
         <v>3.7367993501000001</v>
       </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="21">
+      <c r="G174" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="20">
         <v>43983</v>
       </c>
-      <c r="B175" s="24">
+      <c r="B175" s="23">
         <v>4.6747967480000003</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="21">
+    <row r="176" spans="1:7">
+      <c r="A176" s="20">
         <v>44013</v>
       </c>
-      <c r="B176" s="25">
+      <c r="B176" s="24">
         <v>6.5987780040999997</v>
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="21">
+      <c r="A177" s="20">
         <v>44044</v>
       </c>
-      <c r="B177" s="25">
+      <c r="B177" s="24">
         <v>8.4828711255999991</v>
       </c>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" s="21">
+      <c r="A178" s="20">
         <v>44075</v>
       </c>
-      <c r="B178" s="25">
+      <c r="B178" s="24">
         <v>9.5238095238000007</v>
       </c>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="21">
+      <c r="A179" s="20">
         <v>44105</v>
       </c>
-      <c r="B179" s="25">
+      <c r="B179" s="24">
         <v>10.109622412</v>
       </c>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="21">
+      <c r="A180" s="20">
         <v>44136</v>
       </c>
-      <c r="B180" s="25">
+      <c r="B180" s="24">
         <v>11.165245635</v>
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="21">
+      <c r="A181" s="20">
         <v>44166</v>
       </c>
-      <c r="B181" s="25">
+      <c r="B181" s="24">
         <v>12.322659099999999</v>
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="21">
+      <c r="A182" s="20">
         <v>44197</v>
       </c>
-      <c r="B182" s="25">
+      <c r="B182" s="24">
         <v>14.577492992</v>
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="21">
+      <c r="A183" s="20">
         <v>44228</v>
       </c>
-      <c r="B183" s="25">
+      <c r="B183" s="24">
         <v>17.346938775999998</v>
       </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="21">
+      <c r="A184" s="20">
         <v>44256</v>
       </c>
-      <c r="B184" s="25">
+      <c r="B184" s="24">
         <v>20.605355064000001</v>
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="21">
+      <c r="A185" s="20">
         <v>44287</v>
       </c>
-      <c r="B185" s="25">
+      <c r="B185" s="24">
         <v>24.538672948999999</v>
       </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="21">
+      <c r="A186" s="20">
         <v>44317</v>
       </c>
-      <c r="B186" s="25">
+      <c r="B186" s="24">
         <v>25.606891150999999</v>
       </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="21">
+      <c r="A187" s="20">
         <v>44348</v>
       </c>
-      <c r="B187" s="25">
+      <c r="B187" s="24">
         <v>25.359223301</v>
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="21">
+      <c r="A188" s="20">
         <v>44378</v>
       </c>
-      <c r="B188" s="25">
+      <c r="B188" s="24">
         <v>23.423767673</v>
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="21">
+      <c r="A189" s="20">
         <v>44409</v>
       </c>
-      <c r="B189" s="25">
+      <c r="B189" s="24">
         <v>22.293233083000001</v>
       </c>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="21">
+      <c r="A190" s="20">
         <v>44440</v>
       </c>
-      <c r="B190" s="25">
+      <c r="B190" s="24">
         <v>22.928279450000002</v>
       </c>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="21">
+      <c r="A191" s="20">
         <v>44470</v>
       </c>
-      <c r="B191" s="25">
+      <c r="B191" s="24">
         <v>25.147492625000002</v>
       </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="21">
+      <c r="A192" s="20">
         <v>44501</v>
       </c>
-      <c r="B192" s="25">
+      <c r="B192" s="24">
         <v>26.953981008</v>
       </c>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="21">
+      <c r="A193" s="20">
         <v>44531</v>
       </c>
-      <c r="B193" s="25">
+      <c r="B193" s="24">
         <v>28.076506676000001</v>
       </c>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="21">
+      <c r="A194" s="20">
         <v>44562</v>
       </c>
-      <c r="B194" s="25">
+      <c r="B194" s="24">
         <v>30.758476056999999</v>
       </c>
     </row>
     <row r="195" spans="1:2">
-      <c r="A195" s="21">
+      <c r="A195" s="20">
         <v>44593</v>
       </c>
-      <c r="B195" s="25">
+      <c r="B195" s="24">
         <v>31.204013377999999</v>
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="21">
+      <c r="A196" s="20">
         <v>44621</v>
       </c>
-      <c r="B196" s="25">
+      <c r="B196" s="24">
         <v>27.96010296</v>
       </c>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="21">
+      <c r="A197" s="20">
         <v>44652</v>
       </c>
-      <c r="B197" s="25">
+      <c r="B197" s="24">
         <v>23.644388398</v>
       </c>
     </row>
     <row r="198" spans="1:2">
-      <c r="A198" s="21">
+      <c r="A198" s="20">
         <v>44682</v>
       </c>
-      <c r="B198" s="25">
+      <c r="B198" s="24">
         <v>19.856608478999998</v>
       </c>
     </row>
     <row r="199" spans="1:2">
-      <c r="A199" s="21">
+      <c r="A199" s="20">
         <v>44713</v>
       </c>
-      <c r="B199" s="25">
+      <c r="B199" s="24">
         <v>14.962825279</v>
       </c>
     </row>
     <row r="200" spans="1:2">
-      <c r="A200" s="21">
+      <c r="A200" s="20">
         <v>44743</v>
       </c>
-      <c r="B200" s="25">
+      <c r="B200" s="24">
         <v>10.990712073999999</v>
       </c>
     </row>
     <row r="201" spans="1:2">
-      <c r="A201" s="21">
+      <c r="A201" s="20">
         <v>44774</v>
       </c>
-      <c r="B201" s="25">
+      <c r="B201" s="24">
         <v>7.1318782662000002</v>
       </c>
     </row>
     <row r="202" spans="1:2">
-      <c r="A202" s="21">
+      <c r="A202" s="20">
         <v>44805</v>
       </c>
-      <c r="B202" s="25">
+      <c r="B202" s="24">
         <v>3.3555018138000001</v>
       </c>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203" s="21">
+      <c r="A203" s="20">
         <v>44835</v>
       </c>
-      <c r="B203" s="25">
+      <c r="B203" s="24">
         <v>-0.70713022999999997</v>
       </c>
     </row>
     <row r="204" spans="1:2">
-      <c r="A204" s="21">
+      <c r="A204" s="20">
         <v>44866</v>
       </c>
-      <c r="B204" s="25">
+      <c r="B204" s="24">
         <v>-4.2577675490000004</v>
       </c>
     </row>
     <row r="205" spans="1:2">
-      <c r="A205" s="21">
+      <c r="A205" s="20">
         <v>44896</v>
       </c>
-      <c r="B205" s="25">
+      <c r="B205" s="24">
         <v>-7.4105381799999996</v>
       </c>
     </row>
     <row r="206" spans="1:2">
-      <c r="A206" s="21">
+      <c r="A206" s="20">
         <v>44927</v>
       </c>
-      <c r="B206" s="25">
+      <c r="B206" s="24">
         <v>-12.53675488</v>
       </c>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" s="21">
+      <c r="A207" s="20">
         <v>44958</v>
       </c>
-      <c r="B207" s="25">
+      <c r="B207" s="24">
         <v>-15.77874076</v>
       </c>
     </row>

--- a/The research project/News_release_chart_data_mar_2023.xlsx
+++ b/The research project/News_release_chart_data_mar_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tie/Documents/GitHub/ECON-493-forcasting-economy/The research project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E44B03F-2576-8845-9843-24F6EFCD3DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB32D79-1EEA-7F47-9F48-F0FDE74AEDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37820" yWindow="500" windowWidth="30980" windowHeight="20080" tabRatio="877" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="2940" windowWidth="30980" windowHeight="20080" tabRatio="877" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart 3" sheetId="20" r:id="rId1"/>
@@ -159,7 +159,7 @@
     <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="179" formatCode="[$$-1009]#,##0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -202,6 +202,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFEAEAEA"/>
+      <name val="PTMono-Regular"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -225,7 +231,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -261,6 +267,7 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -8341,7 +8348,7 @@
                 <c:pt idx="119">
                   <c:v>43093</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="120" formatCode="General">
                   <c:v>42424</c:v>
                 </c:pt>
                 <c:pt idx="121">
@@ -17970,8 +17977,8 @@
   <dimension ref="A1:E195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14"/>
@@ -19315,11 +19322,11 @@
         <v>39720.324999999997</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" ht="16">
       <c r="A122" s="1">
         <v>42736</v>
       </c>
-      <c r="B122" s="19">
+      <c r="B122" s="25">
         <v>42424</v>
       </c>
       <c r="C122" s="19">
